--- a/Bases de datos/primers diseño clonaje.xlsx
+++ b/Bases de datos/primers diseño clonaje.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271C56B-840D-4529-8FF8-D49A9F512C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7BC5D-55B8-416D-BD43-9BD828C788A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16395" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mario + Daniel" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="208">
   <si>
     <t>Mouse</t>
   </si>
@@ -539,6 +539,132 @@
   </si>
   <si>
     <t>3377pb (negro + naranja)</t>
+  </si>
+  <si>
+    <t>Point mutation</t>
+  </si>
+  <si>
+    <t>5'-cagaacaccatgcttggttgacgaccacttttcggg-3'</t>
+  </si>
+  <si>
+    <t>5'-cccgaaaagtggtcgtcaaccaagcatggtgttctg-3'</t>
+  </si>
+  <si>
+    <t>74/78,83</t>
+  </si>
+  <si>
+    <t>74/78,84</t>
+  </si>
+  <si>
+    <t>822pb</t>
+  </si>
+  <si>
+    <t>Mutacion</t>
+  </si>
+  <si>
+    <t>1919TT --&gt; AA</t>
+  </si>
+  <si>
+    <t>5'-gtactgccgggtcagttgacgagagccacaga-3'</t>
+  </si>
+  <si>
+    <t>5'-tctgtggctctcgtcaactgacccggcagtac-3'</t>
+  </si>
+  <si>
+    <t>75/78,5</t>
+  </si>
+  <si>
+    <t>852pb</t>
+  </si>
+  <si>
+    <t>3284TT--&gt;AA</t>
+  </si>
+  <si>
+    <t>5'-taaataatctcctatctagactgaattatggttgagctgacatttaaaaaaaataccatttatt-3'</t>
+  </si>
+  <si>
+    <t>5'-aataaatggtattttttttaaatgtcagctcaaccataattcagtctagataggagattattta-3'</t>
+  </si>
+  <si>
+    <t>69/78,08</t>
+  </si>
+  <si>
+    <t>69/78,09</t>
+  </si>
+  <si>
+    <t>1843pb</t>
+  </si>
+  <si>
+    <t>5'-tgtgctgtgactggacaggaaaagccatcagcattcc-3'</t>
+  </si>
+  <si>
+    <t>5'-ggaatgctgatggcttttcctgtccagtcacagcaca-3'</t>
+  </si>
+  <si>
+    <t>2229pb</t>
+  </si>
+  <si>
+    <t>1974GG--&gt;CC</t>
+  </si>
+  <si>
+    <t>5'-ggaaatgtgctgtgactcctctggaaaagccatcagcattc-3'</t>
+  </si>
+  <si>
+    <t>5'-gaatgctgatggcttttccagaggagtcacagcacatttcc-3'</t>
+  </si>
+  <si>
+    <t>78.91</t>
+  </si>
+  <si>
+    <t>78.92</t>
+  </si>
+  <si>
+    <t>5'-gaaatgtgctgtgactcctgaggaaaagccatcagcattcc-3'</t>
+  </si>
+  <si>
+    <t>5'-ggaatgctgatggcttttcctcaggagtcacagcacatttc-3'</t>
+  </si>
+  <si>
+    <t>1971T_T--&gt;A_A</t>
+  </si>
+  <si>
+    <t>1972GT--&gt;CA</t>
+  </si>
+  <si>
+    <t>mDHCR24pm_fw1</t>
+  </si>
+  <si>
+    <t>mDHCR24pm_rv1</t>
+  </si>
+  <si>
+    <t>mSC5D-1pm_fw1</t>
+  </si>
+  <si>
+    <t>mSC5D-1pm_rv1</t>
+  </si>
+  <si>
+    <t>mSC5D-3pm_fw2</t>
+  </si>
+  <si>
+    <t>mSC5D-3pm_rv2</t>
+  </si>
+  <si>
+    <t>mLSSpm_fw1</t>
+  </si>
+  <si>
+    <t>mLSSpm_rv1</t>
+  </si>
+  <si>
+    <t>mLSSpm_fw2</t>
+  </si>
+  <si>
+    <t>mLSSpm_rv2</t>
+  </si>
+  <si>
+    <t>mLSSpm_fw3</t>
+  </si>
+  <si>
+    <t>mLSSpm_rv3</t>
   </si>
 </sst>
 </file>
@@ -627,7 +753,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,8 +808,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -802,12 +934,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -947,6 +1088,66 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -962,12 +1163,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -983,52 +1178,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1312,33 +1462,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:O51"/>
+  <dimension ref="B2:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="37"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="28.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -1385,10 +1536,10 @@
       <c r="E4" s="47">
         <v>64</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="72">
         <v>67</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="76" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="19">
@@ -1400,7 +1551,7 @@
       <c r="J4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="91">
+      <c r="K4" s="81">
         <v>2</v>
       </c>
       <c r="M4" s="52" t="s">
@@ -1420,8 +1571,8 @@
       <c r="E5" s="47">
         <v>64</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="85"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="19" t="s">
         <v>111</v>
       </c>
@@ -1431,7 +1582,7 @@
       <c r="J5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="92"/>
+      <c r="K5" s="82"/>
       <c r="M5" s="51" t="s">
         <v>155</v>
       </c>
@@ -1449,10 +1600,10 @@
       <c r="E6" s="47">
         <v>61</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="72">
         <v>64</v>
       </c>
-      <c r="G6" s="85"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="19">
         <v>1</v>
       </c>
@@ -1462,7 +1613,7 @@
       <c r="J6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="91">
+      <c r="K6" s="81">
         <v>1</v>
       </c>
       <c r="M6" t="s">
@@ -1482,8 +1633,8 @@
       <c r="E7" s="47">
         <v>62</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="85"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="19" t="s">
         <v>111</v>
       </c>
@@ -1493,15 +1644,15 @@
       <c r="J7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="92"/>
+      <c r="K7" s="82"/>
     </row>
     <row r="9" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="90" t="s">
+      <c r="H9" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
@@ -1548,10 +1699,10 @@
       <c r="E11" s="48">
         <v>61</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="67">
         <v>64</v>
       </c>
-      <c r="G11" s="88" t="s">
+      <c r="G11" s="79" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="19" t="s">
@@ -1563,7 +1714,7 @@
       <c r="J11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="91"/>
+      <c r="K11" s="81"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="57" t="s">
@@ -1578,8 +1729,8 @@
       <c r="E12" s="48">
         <v>61</v>
       </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="88"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="19">
         <v>1</v>
       </c>
@@ -1589,7 +1740,7 @@
       <c r="J12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="92"/>
+      <c r="K12" s="82"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="60" t="s">
@@ -1604,10 +1755,10 @@
       <c r="E13" s="61">
         <v>58</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="74">
         <v>61</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="80" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="62">
@@ -1619,7 +1770,7 @@
       <c r="J13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="93"/>
+      <c r="K13" s="83"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
@@ -1634,8 +1785,8 @@
       <c r="E14" s="61">
         <v>60</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="89"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="62" t="s">
         <v>111</v>
       </c>
@@ -1645,7 +1796,7 @@
       <c r="J14" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="94"/>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="63" t="s">
@@ -1678,12 +1829,12 @@
       <c r="K15" s="35"/>
     </row>
     <row r="17" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
@@ -1739,10 +1890,10 @@
       <c r="E19" s="48">
         <v>61</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="67">
         <v>63</v>
       </c>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="76" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="19">
@@ -1754,7 +1905,7 @@
       <c r="J19" s="19">
         <v>3</v>
       </c>
-      <c r="K19" s="91">
+      <c r="K19" s="81">
         <v>2</v>
       </c>
       <c r="M19" t="s">
@@ -1780,8 +1931,8 @@
       <c r="E20" s="48">
         <v>60</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="85"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="19" t="s">
         <v>111</v>
       </c>
@@ -1791,7 +1942,7 @@
       <c r="J20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="92"/>
+      <c r="K20" s="82"/>
       <c r="M20" s="53" t="s">
         <v>161</v>
       </c>
@@ -1815,10 +1966,10 @@
       <c r="E21" s="48">
         <v>61</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="67">
         <v>64</v>
       </c>
-      <c r="G21" s="85" t="s">
+      <c r="G21" s="76" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="19" t="s">
@@ -1830,7 +1981,7 @@
       <c r="J21" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="91">
+      <c r="K21" s="81">
         <v>2</v>
       </c>
     </row>
@@ -1847,8 +1998,8 @@
       <c r="E22" s="48">
         <v>62</v>
       </c>
-      <c r="F22" s="82"/>
-      <c r="G22" s="85"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="19" t="s">
         <v>111</v>
       </c>
@@ -1858,7 +2009,7 @@
       <c r="J22" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="92"/>
+      <c r="K22" s="82"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -1873,10 +2024,10 @@
       <c r="E23" s="48">
         <v>60</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="67">
         <v>63</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="76" t="s">
         <v>108</v>
       </c>
       <c r="H23" s="19" t="s">
@@ -1888,7 +2039,7 @@
       <c r="J23" s="19">
         <v>1</v>
       </c>
-      <c r="K23" s="91" t="s">
+      <c r="K23" s="81" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1905,8 +2056,8 @@
       <c r="E24" s="48">
         <v>62</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="85"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="19" t="s">
         <v>111</v>
       </c>
@@ -1916,7 +2067,7 @@
       <c r="J24" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="92"/>
+      <c r="K24" s="82"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
@@ -1927,12 +2078,12 @@
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="90" t="s">
+      <c r="H26" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
@@ -1979,10 +2130,10 @@
       <c r="E28" s="43">
         <v>60</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="67">
         <v>63</v>
       </c>
-      <c r="G28" s="86" t="s">
+      <c r="G28" s="77" t="s">
         <v>156</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -1994,7 +2145,7 @@
       <c r="J28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="81" t="s">
+      <c r="K28" s="67" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2011,8 +2162,8 @@
       <c r="E29" s="43">
         <v>63</v>
       </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="87"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="19" t="s">
         <v>111</v>
       </c>
@@ -2022,7 +2173,7 @@
       <c r="J29" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="82"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -2033,10 +2184,10 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="81">
+      <c r="F30" s="67">
         <v>63</v>
       </c>
-      <c r="G30" s="86" t="s">
+      <c r="G30" s="77" t="s">
         <v>157</v>
       </c>
       <c r="H30" s="19" t="s">
@@ -2048,7 +2199,7 @@
       <c r="J30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="K30" s="81">
+      <c r="K30" s="67">
         <v>2</v>
       </c>
     </row>
@@ -2065,8 +2216,8 @@
       <c r="E31" s="43">
         <v>61</v>
       </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="19">
         <v>1</v>
       </c>
@@ -2076,7 +2227,7 @@
       <c r="J31" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="82"/>
+      <c r="K31" s="68"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
@@ -2099,12 +2250,12 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="90" t="s">
+      <c r="H35" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
     </row>
     <row r="36" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
@@ -2151,10 +2302,10 @@
       <c r="E37" s="43">
         <v>61</v>
       </c>
-      <c r="F37" s="81">
+      <c r="F37" s="67">
         <v>64</v>
       </c>
-      <c r="G37" s="91" t="s">
+      <c r="G37" s="81" t="s">
         <v>149</v>
       </c>
       <c r="H37" s="41" t="s">
@@ -2166,7 +2317,7 @@
       <c r="J37" s="41">
         <v>2</v>
       </c>
-      <c r="K37" s="81">
+      <c r="K37" s="67">
         <v>3</v>
       </c>
     </row>
@@ -2183,8 +2334,8 @@
       <c r="E38" s="44">
         <v>61</v>
       </c>
-      <c r="F38" s="82"/>
-      <c r="G38" s="92"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="82"/>
       <c r="H38" s="41" t="s">
         <v>111</v>
       </c>
@@ -2194,7 +2345,7 @@
       <c r="J38" s="41">
         <v>2</v>
       </c>
-      <c r="K38" s="82"/>
+      <c r="K38" s="68"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2209,10 +2360,10 @@
       <c r="E39" s="48">
         <v>60</v>
       </c>
-      <c r="F39" s="81">
+      <c r="F39" s="67">
         <v>63</v>
       </c>
-      <c r="G39" s="72" t="s">
+      <c r="G39" s="85" t="s">
         <v>151</v>
       </c>
       <c r="H39" s="41" t="s">
@@ -2224,7 +2375,7 @@
       <c r="J39" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="81">
+      <c r="K39" s="67">
         <v>2</v>
       </c>
     </row>
@@ -2241,8 +2392,8 @@
       <c r="E40" s="48">
         <v>62</v>
       </c>
-      <c r="F40" s="82"/>
-      <c r="G40" s="73"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="86"/>
       <c r="H40" s="45" t="s">
         <v>111</v>
       </c>
@@ -2252,7 +2403,7 @@
       <c r="J40" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="82"/>
+      <c r="K40" s="68"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2267,10 +2418,10 @@
       <c r="E41" s="50">
         <v>62</v>
       </c>
-      <c r="F41" s="81">
+      <c r="F41" s="67">
         <v>64</v>
       </c>
-      <c r="G41" s="91" t="s">
+      <c r="G41" s="81" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="45">
@@ -2282,7 +2433,7 @@
       <c r="J41" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="81">
+      <c r="K41" s="67">
         <v>3</v>
       </c>
     </row>
@@ -2299,8 +2450,8 @@
       <c r="E42" s="43">
         <v>61</v>
       </c>
-      <c r="F42" s="82"/>
-      <c r="G42" s="92"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="82"/>
       <c r="H42" s="45" t="s">
         <v>111</v>
       </c>
@@ -2310,106 +2461,481 @@
       <c r="J42" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="82"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H46" s="90" t="s">
+      <c r="K42" s="68"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="1">
+        <v>36</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="91" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="1">
+        <v>36</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="39"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H53" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C54" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D54" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E54" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F54" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G54" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H54" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I47" s="25" t="s">
+      <c r="I54" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J47" s="26" t="s">
+      <c r="J54" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="K47" s="24" t="s">
+      <c r="K54" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="1">
+        <v>32</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="39"/>
+      <c r="G55" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="H55" s="40"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="1">
+        <v>32</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="39"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="71"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="1">
+        <v>64</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57" s="39"/>
+      <c r="G57" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="H57" s="40"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="69"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="1">
+        <v>64</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="39"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="69"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H61" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K62" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="1">
+        <v>37</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="H63" s="40"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="1">
+        <v>37</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="69"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="1">
+        <v>41</v>
+      </c>
+      <c r="E65" s="48">
+        <v>80.16</v>
+      </c>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="1">
+        <v>41</v>
+      </c>
+      <c r="E66" s="48">
+        <v>80.16</v>
+      </c>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="69"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="1">
+        <v>41</v>
+      </c>
+      <c r="E67" s="48">
+        <v>80.16</v>
+      </c>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="H67" s="40"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="1">
+        <v>41</v>
+      </c>
+      <c r="E68" s="48">
+        <v>80.16</v>
+      </c>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="69"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K71" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="58">
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G41:G42"/>
@@ -2428,7 +2954,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H46:K46"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K23:K24"/>
@@ -2438,6 +2963,7 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K30:K31"/>
+    <mergeCell ref="B45:K45"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G28:G29"/>
@@ -2451,6 +2977,23 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="L67:L68"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2462,7 +3005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2475,11 +3018,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -2501,7 +3044,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="95" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2512,7 +3055,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="78"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2521,7 +3064,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2535,7 +3078,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -2556,7 +3099,7 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="93" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="42" t="s">
@@ -2567,7 +3110,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="76"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
@@ -2576,7 +3119,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="76"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2588,7 +3131,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="76"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
@@ -2600,7 +3143,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="90" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -2612,7 +3155,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="70"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
@@ -2646,7 +3189,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="72"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
@@ -2656,7 +3199,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="73"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
@@ -2700,7 +3243,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="90" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -2711,7 +3254,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
@@ -2720,7 +3263,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="70"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
@@ -2729,7 +3272,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="70"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="17" t="s">
         <v>41</v>
       </c>
@@ -2738,7 +3281,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="91" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -2749,7 +3292,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="71"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
@@ -2758,7 +3301,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="87" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -2769,7 +3312,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="68"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
@@ -2778,7 +3321,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="69"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="17" t="s">
         <v>51</v>
       </c>

--- a/Bases de datos/primers diseño clonaje.xlsx
+++ b/Bases de datos/primers diseño clonaje.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7BC5D-55B8-416D-BD43-9BD828C788A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9378D0AB-3DF9-4D32-AB8B-F94BA11E7DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="257">
   <si>
     <t>Mouse</t>
   </si>
@@ -666,12 +666,159 @@
   <si>
     <t>mLSSpm_rv3</t>
   </si>
+  <si>
+    <t>hSC5D_fw1</t>
+  </si>
+  <si>
+    <t>816pb (7mer8)</t>
+  </si>
+  <si>
+    <t>hSC5D_rv1</t>
+  </si>
+  <si>
+    <t>CCCctcgagAAATCAGCATCGTGGGCACT</t>
+  </si>
+  <si>
+    <t>hSC5D_fw2</t>
+  </si>
+  <si>
+    <t>hSC5D_rv2</t>
+  </si>
+  <si>
+    <t>hSC5D_rv3</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcGTCAGCAATGGGCCTAGGTA</t>
+  </si>
+  <si>
+    <t>CCCctcgagTAATCAAACTTGCCCCTGCC</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcGGAGGACACATTCAGACCAC</t>
+  </si>
+  <si>
+    <t>631pb (8mer)</t>
+  </si>
+  <si>
+    <t>hSC5D_fw4</t>
+  </si>
+  <si>
+    <t>hSC5D_rv4</t>
+  </si>
+  <si>
+    <t>hSC5D_rv5</t>
+  </si>
+  <si>
+    <t>1033pb (8mer)</t>
+  </si>
+  <si>
+    <t>679pb (7merA1)</t>
+  </si>
+  <si>
+    <t>1029pb (7merA1)</t>
+  </si>
+  <si>
+    <t>hSC5D 3'UTR</t>
+  </si>
+  <si>
+    <t>hDHCR7 3'UTR</t>
+  </si>
+  <si>
+    <t>hDHCR7_fw1</t>
+  </si>
+  <si>
+    <t>hDHCR7_rv1</t>
+  </si>
+  <si>
+    <t>871pb (7mer8)</t>
+  </si>
+  <si>
+    <t>hDHCR24 3'UTR</t>
+  </si>
+  <si>
+    <t>hDHCR24_fw1</t>
+  </si>
+  <si>
+    <t>hDHCR24_rv1</t>
+  </si>
+  <si>
+    <t>hDHCR24_fw2</t>
+  </si>
+  <si>
+    <t>hDHCR24_rv2</t>
+  </si>
+  <si>
+    <t>CCCctcgagGCTTAACCGTGACTTCCCAG</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcCGAGGCAGGCAGATCATGAG</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcCAACCCTCTAACCAGTCCTTG</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcATTGAGGGCCTATGGAGGTA</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcGAGTTCTACACAACACCCTAGGG</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcTGGGGTTGAAGGAAGGATCT</t>
+  </si>
+  <si>
+    <t>CCCctcgagTGTCAAGAGCGTGTTCTGC</t>
+  </si>
+  <si>
+    <t>CCCctcgagCAGGCCTCATCTTTCCCAAA</t>
+  </si>
+  <si>
+    <t>CCCctcgagCCAGGGTTGAATCTTGTCCC</t>
+  </si>
+  <si>
+    <t>hSC5D_fw6</t>
+  </si>
+  <si>
+    <t>hSC5D_rv6</t>
+  </si>
+  <si>
+    <t>3425pb (8mer,7mer8 y 7merA1)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>hDHCR24_fw3</t>
+  </si>
+  <si>
+    <t>hDHCR24_rv3</t>
+  </si>
+  <si>
+    <t>718pb (7merA1)</t>
+  </si>
+  <si>
+    <t>833pb (7merA1)</t>
+  </si>
+  <si>
+    <t>2548pb (7merA1)</t>
+  </si>
+  <si>
+    <t>CCCctcgagGGAGAGACAGACACGTGTGA</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcGACATGTCCCCATGGCTGT</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcCAGTGCTTAGCACCTATCAGGG</t>
+  </si>
+  <si>
+    <t>CCCctcgagGCATTTGCCTTCATCCACCC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +895,13 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -948,7 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1088,19 +1242,77 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,39 +1327,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1160,9 +1345,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1177,9 +1359,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1462,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:O75"/>
+  <dimension ref="A2:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,12 +1663,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -1536,10 +1715,10 @@
       <c r="E4" s="47">
         <v>64</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="92">
         <v>67</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="87" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="19">
@@ -1571,8 +1750,8 @@
       <c r="E5" s="47">
         <v>64</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="76"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="87"/>
       <c r="H5" s="19" t="s">
         <v>111</v>
       </c>
@@ -1600,10 +1779,10 @@
       <c r="E6" s="47">
         <v>61</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="92">
         <v>64</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="19">
         <v>1</v>
       </c>
@@ -1633,8 +1812,8 @@
       <c r="E7" s="47">
         <v>62</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="19" t="s">
         <v>111</v>
       </c>
@@ -1647,12 +1826,12 @@
       <c r="K7" s="82"/>
     </row>
     <row r="9" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
@@ -1699,10 +1878,10 @@
       <c r="E11" s="48">
         <v>61</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="77">
         <v>64</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="90" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="19" t="s">
@@ -1729,8 +1908,8 @@
       <c r="E12" s="48">
         <v>61</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="19">
         <v>1</v>
       </c>
@@ -1755,10 +1934,10 @@
       <c r="E13" s="61">
         <v>58</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="94">
         <v>61</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="91" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="62">
@@ -1770,7 +1949,7 @@
       <c r="J13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="83"/>
+      <c r="K13" s="96"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
@@ -1785,8 +1964,8 @@
       <c r="E14" s="61">
         <v>60</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="80"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="62" t="s">
         <v>111</v>
       </c>
@@ -1796,7 +1975,7 @@
       <c r="J14" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="84"/>
+      <c r="K14" s="97"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="63" t="s">
@@ -1829,12 +2008,12 @@
       <c r="K15" s="35"/>
     </row>
     <row r="17" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
@@ -1890,10 +2069,10 @@
       <c r="E19" s="48">
         <v>61</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="77">
         <v>63</v>
       </c>
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="87" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="19">
@@ -1931,8 +2110,8 @@
       <c r="E20" s="48">
         <v>60</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="76"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="19" t="s">
         <v>111</v>
       </c>
@@ -1966,10 +2145,10 @@
       <c r="E21" s="48">
         <v>61</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="77">
         <v>64</v>
       </c>
-      <c r="G21" s="76" t="s">
+      <c r="G21" s="87" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="19" t="s">
@@ -1998,8 +2177,8 @@
       <c r="E22" s="48">
         <v>62</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="76"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="19" t="s">
         <v>111</v>
       </c>
@@ -2024,10 +2203,10 @@
       <c r="E23" s="48">
         <v>60</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="77">
         <v>63</v>
       </c>
-      <c r="G23" s="76" t="s">
+      <c r="G23" s="87" t="s">
         <v>108</v>
       </c>
       <c r="H23" s="19" t="s">
@@ -2056,8 +2235,8 @@
       <c r="E24" s="48">
         <v>62</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="76"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="19" t="s">
         <v>111</v>
       </c>
@@ -2078,12 +2257,12 @@
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
@@ -2130,10 +2309,10 @@
       <c r="E28" s="43">
         <v>60</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="77">
         <v>63</v>
       </c>
-      <c r="G28" s="77" t="s">
+      <c r="G28" s="88" t="s">
         <v>156</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -2145,7 +2324,7 @@
       <c r="J28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="77" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2162,8 +2341,8 @@
       <c r="E29" s="43">
         <v>63</v>
       </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="19" t="s">
         <v>111</v>
       </c>
@@ -2173,7 +2352,7 @@
       <c r="J29" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="68"/>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -2184,10 +2363,10 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="67">
+      <c r="F30" s="77">
         <v>63</v>
       </c>
-      <c r="G30" s="77" t="s">
+      <c r="G30" s="88" t="s">
         <v>157</v>
       </c>
       <c r="H30" s="19" t="s">
@@ -2199,7 +2378,7 @@
       <c r="J30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="K30" s="67">
+      <c r="K30" s="77">
         <v>2</v>
       </c>
     </row>
@@ -2216,8 +2395,8 @@
       <c r="E31" s="43">
         <v>61</v>
       </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="19">
         <v>1</v>
       </c>
@@ -2227,7 +2406,7 @@
       <c r="J31" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="68"/>
+      <c r="K31" s="78"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
@@ -2250,16 +2429,16 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
     </row>
     <row r="36" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>154</v>
@@ -2302,7 +2481,7 @@
       <c r="E37" s="43">
         <v>61</v>
       </c>
-      <c r="F37" s="67">
+      <c r="F37" s="77">
         <v>64</v>
       </c>
       <c r="G37" s="81" t="s">
@@ -2317,7 +2496,7 @@
       <c r="J37" s="41">
         <v>2</v>
       </c>
-      <c r="K37" s="67">
+      <c r="K37" s="77">
         <v>3</v>
       </c>
     </row>
@@ -2334,7 +2513,7 @@
       <c r="E38" s="44">
         <v>61</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="78"/>
       <c r="G38" s="82"/>
       <c r="H38" s="41" t="s">
         <v>111</v>
@@ -2345,7 +2524,7 @@
       <c r="J38" s="41">
         <v>2</v>
       </c>
-      <c r="K38" s="68"/>
+      <c r="K38" s="78"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2360,10 +2539,10 @@
       <c r="E39" s="48">
         <v>60</v>
       </c>
-      <c r="F39" s="67">
+      <c r="F39" s="77">
         <v>63</v>
       </c>
-      <c r="G39" s="85" t="s">
+      <c r="G39" s="79" t="s">
         <v>151</v>
       </c>
       <c r="H39" s="41" t="s">
@@ -2375,7 +2554,7 @@
       <c r="J39" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="67">
+      <c r="K39" s="77">
         <v>2</v>
       </c>
     </row>
@@ -2392,8 +2571,8 @@
       <c r="E40" s="48">
         <v>62</v>
       </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="86"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="80"/>
       <c r="H40" s="45" t="s">
         <v>111</v>
       </c>
@@ -2403,7 +2582,7 @@
       <c r="J40" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="68"/>
+      <c r="K40" s="78"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2418,7 +2597,7 @@
       <c r="E41" s="50">
         <v>62</v>
       </c>
-      <c r="F41" s="67">
+      <c r="F41" s="77">
         <v>64</v>
       </c>
       <c r="G41" s="81" t="s">
@@ -2433,7 +2612,7 @@
       <c r="J41" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="67">
+      <c r="K41" s="77">
         <v>3</v>
       </c>
     </row>
@@ -2450,7 +2629,7 @@
       <c r="E42" s="43">
         <v>61</v>
       </c>
-      <c r="F42" s="68"/>
+      <c r="F42" s="78"/>
       <c r="G42" s="82"/>
       <c r="H42" s="45" t="s">
         <v>111</v>
@@ -2461,484 +2640,1091 @@
       <c r="J42" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="68"/>
+      <c r="K42" s="78"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
+      <c r="B45" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="1">
+        <v>20</v>
+      </c>
+      <c r="E46" s="48">
+        <v>62</v>
+      </c>
+      <c r="F46" s="81">
+        <v>64</v>
+      </c>
+      <c r="G46" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" s="40"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="1">
+        <v>20</v>
+      </c>
+      <c r="E47" s="48">
+        <v>61</v>
+      </c>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="1">
+        <v>20</v>
+      </c>
+      <c r="E48" s="48">
+        <v>61</v>
+      </c>
+      <c r="F48" s="81">
+        <v>63</v>
+      </c>
+      <c r="G48" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="H48" s="40"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>167</v>
+        <v>213</v>
+      </c>
+      <c r="C49" s="73" t="s">
+        <v>217</v>
       </c>
       <c r="D49" s="1">
-        <v>36</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="H49" s="91" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E49" s="48">
+        <v>60</v>
+      </c>
+      <c r="F49" s="82"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="D50" s="1">
-        <v>36</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H53" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J54" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="K54" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E50" s="48">
+        <v>62</v>
+      </c>
+      <c r="F50" s="67">
+        <v>64</v>
+      </c>
+      <c r="G50" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20</v>
+      </c>
+      <c r="E51" s="48">
+        <v>60</v>
+      </c>
+      <c r="F51" s="81">
+        <v>63</v>
+      </c>
+      <c r="G51" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="H51" s="40"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="1">
+        <v>21</v>
+      </c>
+      <c r="E52" s="48">
+        <v>60</v>
+      </c>
+      <c r="F52" s="82"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="1">
+        <v>20</v>
+      </c>
+      <c r="E53" s="48">
+        <v>60</v>
+      </c>
+      <c r="F53" s="69">
+        <v>63</v>
+      </c>
+      <c r="G53" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="1">
+        <v>20</v>
+      </c>
+      <c r="E54" s="72">
+        <v>62</v>
+      </c>
+      <c r="F54" s="81">
+        <v>65</v>
+      </c>
+      <c r="G54" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>247</v>
+      </c>
       <c r="B55" s="1" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="D55" s="1">
-        <v>32</v>
-      </c>
-      <c r="E55" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="F55" s="39"/>
-      <c r="G55" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="H55" s="40"/>
+        <v>22</v>
+      </c>
+      <c r="E55" s="72">
+        <v>62</v>
+      </c>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="71" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="1">
-        <v>32</v>
-      </c>
-      <c r="E56" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="71"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" s="1">
-        <v>64</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="F57" s="39"/>
-      <c r="G57" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="H57" s="40"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="69"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" s="1">
-        <v>64</v>
-      </c>
-      <c r="E58" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="F58" s="39"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="69"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H61" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="22" t="s">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D59" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E59" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F62" s="56" t="s">
+      <c r="F59" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="G62" s="38" t="s">
+      <c r="G59" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H59" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I62" s="25" t="s">
+      <c r="I59" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J62" s="26" t="s">
+      <c r="J59" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="K62" s="24" t="s">
+      <c r="K59" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="1">
-        <v>37</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="H63" s="40"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="69" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="1">
-        <v>37</v>
-      </c>
-      <c r="E64" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="69"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" s="1">
-        <v>41</v>
-      </c>
-      <c r="E65" s="48">
-        <v>80.16</v>
-      </c>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="69" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="1">
+        <v>19</v>
+      </c>
+      <c r="E60" s="48">
+        <v>60</v>
+      </c>
+      <c r="F60" s="77">
+        <v>63</v>
+      </c>
+      <c r="G60" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="H60" s="40"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" s="1">
+        <v>23</v>
+      </c>
+      <c r="E61" s="48">
+        <v>62</v>
+      </c>
+      <c r="F61" s="78"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="D66" s="1">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E66" s="48">
-        <v>80.16</v>
-      </c>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="F66" s="77">
+        <v>63</v>
+      </c>
+      <c r="G66" s="79" t="s">
+        <v>250</v>
+      </c>
+      <c r="H66" s="40"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="69"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="D67" s="1">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E67" s="48">
-        <v>80.16</v>
-      </c>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="H67" s="40"/>
+        <v>60</v>
+      </c>
+      <c r="F67" s="78"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="D68" s="1">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E68" s="48">
-        <v>80.16</v>
-      </c>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="F68" s="70">
+        <v>63</v>
+      </c>
+      <c r="G68" s="79" t="s">
+        <v>251</v>
+      </c>
+      <c r="H68" s="40"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="69"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="21" t="s">
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" s="1">
+        <v>20</v>
+      </c>
+      <c r="E70" s="48">
+        <v>61</v>
+      </c>
+      <c r="F70" s="81">
+        <v>64</v>
+      </c>
+      <c r="G70" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="H70" s="40"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="1">
+        <v>19</v>
+      </c>
+      <c r="E71" s="48">
+        <v>62</v>
+      </c>
+      <c r="F71" s="82"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C78" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D78" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E71" s="55" t="s">
+      <c r="E78" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="56" t="s">
+      <c r="F78" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="G71" s="38" t="s">
+      <c r="G78" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H71" s="24" t="s">
+      <c r="H78" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="1">
+        <v>36</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" s="39"/>
+      <c r="G79" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="H79" s="86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="1">
+        <v>36</v>
+      </c>
+      <c r="E80" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" s="39"/>
+      <c r="G80" s="86"/>
+      <c r="H80" s="86"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H83" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="I83" s="85"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="85"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F84" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I71" s="25" t="s">
+      <c r="I84" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J71" s="26" t="s">
+      <c r="J84" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="K71" s="24" t="s">
+      <c r="K84" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="1">
+        <v>32</v>
+      </c>
+      <c r="E85" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" s="39"/>
+      <c r="G85" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="H85" s="40"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="1">
+        <v>32</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" s="39"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="84"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" s="1">
+        <v>64</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="F87" s="39"/>
+      <c r="G87" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="H87" s="40"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="83"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="1">
+        <v>64</v>
+      </c>
+      <c r="E88" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="F88" s="39"/>
+      <c r="G88" s="78"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="83"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H91" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="I91" s="85"/>
+      <c r="J91" s="85"/>
+      <c r="K91" s="85"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E92" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F92" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I92" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J92" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K92" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" s="1">
+        <v>37</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="H93" s="40"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" s="1">
+        <v>37</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F94" s="78"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="83"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" s="1">
+        <v>41</v>
+      </c>
+      <c r="E95" s="48">
+        <v>80.16</v>
+      </c>
+      <c r="F95" s="77"/>
+      <c r="G95" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" s="1">
+        <v>41</v>
+      </c>
+      <c r="E96" s="48">
+        <v>80.16</v>
+      </c>
+      <c r="F96" s="78"/>
+      <c r="G96" s="78"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="83"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" s="1">
+        <v>41</v>
+      </c>
+      <c r="E97" s="48">
+        <v>80.16</v>
+      </c>
+      <c r="F97" s="77"/>
+      <c r="G97" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="H97" s="40"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="83" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" s="1">
+        <v>41</v>
+      </c>
+      <c r="E98" s="48">
+        <v>80.16</v>
+      </c>
+      <c r="F98" s="78"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="83"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G101" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I101" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J101" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K101" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G41:G42"/>
+  <mergeCells count="72">
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="K41:K42"/>
@@ -2948,8 +3734,8 @@
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F46:F47"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H17:K17"/>
@@ -2961,9 +3747,14 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G28:G29"/>
@@ -2972,28 +3763,34 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G68:G69"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3018,11 +3815,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3044,7 +3841,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="105" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -3055,7 +3852,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="96"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
@@ -3064,7 +3861,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="101" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3078,7 +3875,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="90"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -3099,7 +3896,7 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="103" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="42" t="s">
@@ -3110,7 +3907,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="94"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
@@ -3119,7 +3916,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="94"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
@@ -3131,7 +3928,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="94"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
@@ -3143,7 +3940,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="101" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3155,7 +3952,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="90"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
@@ -3189,7 +3986,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="85"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
@@ -3199,7 +3996,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
@@ -3243,7 +4040,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="101" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -3254,7 +4051,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="90"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
@@ -3263,7 +4060,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="90"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
@@ -3272,7 +4069,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="90"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="17" t="s">
         <v>41</v>
       </c>
@@ -3281,7 +4078,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="86" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -3292,7 +4089,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="91"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
@@ -3301,7 +4098,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="98" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -3312,7 +4109,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="88"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
@@ -3321,7 +4118,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="89"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="17" t="s">
         <v>51</v>
       </c>

--- a/Bases de datos/primers diseño clonaje.xlsx
+++ b/Bases de datos/primers diseño clonaje.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9378D0AB-3DF9-4D32-AB8B-F94BA11E7DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DADFEB-5884-449A-916E-3BD596435D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="260">
   <si>
     <t>Mouse</t>
   </si>
@@ -67,6 +67,7 @@
         <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>et al</t>
     </r>
@@ -74,6 +75,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, EMBO 2011</t>
     </r>
@@ -812,6 +814,15 @@
   </si>
   <si>
     <t>CCCctcgagGCATTTGCCTTCATCCACCC</t>
+  </si>
+  <si>
+    <t>mDHCR24pm 3'UTR</t>
+  </si>
+  <si>
+    <t>mSC5Dpm 3'UTR</t>
+  </si>
+  <si>
+    <t>mLSSpm 3'UTR</t>
   </si>
 </sst>
 </file>
@@ -837,15 +848,18 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -901,7 +915,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1102,7 +1116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1242,109 +1256,87 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1359,6 +1351,50 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1643,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,12 +1699,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -1715,10 +1751,10 @@
       <c r="E4" s="47">
         <v>64</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="78">
         <v>67</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="82" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="19">
@@ -1730,7 +1766,7 @@
       <c r="J4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="71">
         <v>2</v>
       </c>
       <c r="M4" s="52" t="s">
@@ -1750,8 +1786,8 @@
       <c r="E5" s="47">
         <v>64</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="87"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="19" t="s">
         <v>111</v>
       </c>
@@ -1761,7 +1797,7 @@
       <c r="J5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="82"/>
+      <c r="K5" s="72"/>
       <c r="M5" s="51" t="s">
         <v>155</v>
       </c>
@@ -1779,10 +1815,10 @@
       <c r="E6" s="47">
         <v>61</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="78">
         <v>64</v>
       </c>
-      <c r="G6" s="87"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="19">
         <v>1</v>
       </c>
@@ -1792,7 +1828,7 @@
       <c r="J6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="81">
+      <c r="K6" s="71">
         <v>1</v>
       </c>
       <c r="M6" t="s">
@@ -1812,8 +1848,8 @@
       <c r="E7" s="47">
         <v>62</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="87"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="19" t="s">
         <v>111</v>
       </c>
@@ -1823,15 +1859,15 @@
       <c r="J7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="82"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="9" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
@@ -1878,10 +1914,10 @@
       <c r="E11" s="48">
         <v>61</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="69">
         <v>64</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="85" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="19" t="s">
@@ -1893,7 +1929,7 @@
       <c r="J11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="81"/>
+      <c r="K11" s="71"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="57" t="s">
@@ -1908,8 +1944,8 @@
       <c r="E12" s="48">
         <v>61</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="90"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="85"/>
       <c r="H12" s="19">
         <v>1</v>
       </c>
@@ -1919,7 +1955,7 @@
       <c r="J12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="82"/>
+      <c r="K12" s="72"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="60" t="s">
@@ -1934,10 +1970,10 @@
       <c r="E13" s="61">
         <v>58</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="80">
         <v>61</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="86" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="62">
@@ -1949,7 +1985,7 @@
       <c r="J13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="96"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
@@ -1964,8 +2000,8 @@
       <c r="E14" s="61">
         <v>60</v>
       </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="91"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="62" t="s">
         <v>111</v>
       </c>
@@ -1975,7 +2011,7 @@
       <c r="J14" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="97"/>
+      <c r="K14" s="77"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="63" t="s">
@@ -2008,12 +2044,12 @@
       <c r="K15" s="35"/>
     </row>
     <row r="17" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="85" t="s">
+      <c r="H17" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
@@ -2069,10 +2105,10 @@
       <c r="E19" s="48">
         <v>61</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="69">
         <v>63</v>
       </c>
-      <c r="G19" s="87" t="s">
+      <c r="G19" s="82" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="19">
@@ -2084,7 +2120,7 @@
       <c r="J19" s="19">
         <v>3</v>
       </c>
-      <c r="K19" s="81">
+      <c r="K19" s="71">
         <v>2</v>
       </c>
       <c r="M19" t="s">
@@ -2110,8 +2146,8 @@
       <c r="E20" s="48">
         <v>60</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="87"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="19" t="s">
         <v>111</v>
       </c>
@@ -2121,7 +2157,7 @@
       <c r="J20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="82"/>
+      <c r="K20" s="72"/>
       <c r="M20" s="53" t="s">
         <v>161</v>
       </c>
@@ -2145,10 +2181,10 @@
       <c r="E21" s="48">
         <v>61</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="69">
         <v>64</v>
       </c>
-      <c r="G21" s="87" t="s">
+      <c r="G21" s="82" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="19" t="s">
@@ -2160,7 +2196,7 @@
       <c r="J21" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="81">
+      <c r="K21" s="71">
         <v>2</v>
       </c>
     </row>
@@ -2177,8 +2213,8 @@
       <c r="E22" s="48">
         <v>62</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="19" t="s">
         <v>111</v>
       </c>
@@ -2188,7 +2224,7 @@
       <c r="J22" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="82"/>
+      <c r="K22" s="72"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -2203,10 +2239,10 @@
       <c r="E23" s="48">
         <v>60</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="69">
         <v>63</v>
       </c>
-      <c r="G23" s="87" t="s">
+      <c r="G23" s="82" t="s">
         <v>108</v>
       </c>
       <c r="H23" s="19" t="s">
@@ -2218,7 +2254,7 @@
       <c r="J23" s="19">
         <v>1</v>
       </c>
-      <c r="K23" s="81" t="s">
+      <c r="K23" s="71" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2235,8 +2271,8 @@
       <c r="E24" s="48">
         <v>62</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="87"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="82"/>
       <c r="H24" s="19" t="s">
         <v>111</v>
       </c>
@@ -2246,7 +2282,7 @@
       <c r="J24" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="82"/>
+      <c r="K24" s="72"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
@@ -2257,12 +2293,12 @@
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="85" t="s">
+      <c r="H26" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
@@ -2309,10 +2345,10 @@
       <c r="E28" s="43">
         <v>60</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="69">
         <v>63</v>
       </c>
-      <c r="G28" s="88" t="s">
+      <c r="G28" s="83" t="s">
         <v>156</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -2324,7 +2360,7 @@
       <c r="J28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="77" t="s">
+      <c r="K28" s="69" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2341,8 +2377,8 @@
       <c r="E29" s="43">
         <v>63</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="89"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="84"/>
       <c r="H29" s="19" t="s">
         <v>111</v>
       </c>
@@ -2352,7 +2388,7 @@
       <c r="J29" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="78"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -2363,10 +2399,10 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="77">
+      <c r="F30" s="69">
         <v>63</v>
       </c>
-      <c r="G30" s="88" t="s">
+      <c r="G30" s="83" t="s">
         <v>157</v>
       </c>
       <c r="H30" s="19" t="s">
@@ -2378,7 +2414,7 @@
       <c r="J30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="K30" s="77">
+      <c r="K30" s="69">
         <v>2</v>
       </c>
     </row>
@@ -2395,8 +2431,8 @@
       <c r="E31" s="43">
         <v>61</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="89"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="84"/>
       <c r="H31" s="19">
         <v>1</v>
       </c>
@@ -2406,7 +2442,7 @@
       <c r="J31" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="78"/>
+      <c r="K31" s="70"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
@@ -2429,12 +2465,12 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="85" t="s">
+      <c r="H35" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
     </row>
     <row r="36" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
@@ -2481,10 +2517,10 @@
       <c r="E37" s="43">
         <v>61</v>
       </c>
-      <c r="F37" s="77">
+      <c r="F37" s="69">
         <v>64</v>
       </c>
-      <c r="G37" s="81" t="s">
+      <c r="G37" s="71" t="s">
         <v>149</v>
       </c>
       <c r="H37" s="41" t="s">
@@ -2496,7 +2532,7 @@
       <c r="J37" s="41">
         <v>2</v>
       </c>
-      <c r="K37" s="77">
+      <c r="K37" s="69">
         <v>3</v>
       </c>
     </row>
@@ -2513,8 +2549,8 @@
       <c r="E38" s="44">
         <v>61</v>
       </c>
-      <c r="F38" s="78"/>
-      <c r="G38" s="82"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="41" t="s">
         <v>111</v>
       </c>
@@ -2524,7 +2560,7 @@
       <c r="J38" s="41">
         <v>2</v>
       </c>
-      <c r="K38" s="78"/>
+      <c r="K38" s="70"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2539,10 +2575,10 @@
       <c r="E39" s="48">
         <v>60</v>
       </c>
-      <c r="F39" s="77">
+      <c r="F39" s="69">
         <v>63</v>
       </c>
-      <c r="G39" s="79" t="s">
+      <c r="G39" s="74" t="s">
         <v>151</v>
       </c>
       <c r="H39" s="41" t="s">
@@ -2554,7 +2590,7 @@
       <c r="J39" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="77">
+      <c r="K39" s="69">
         <v>2</v>
       </c>
     </row>
@@ -2571,8 +2607,8 @@
       <c r="E40" s="48">
         <v>62</v>
       </c>
-      <c r="F40" s="78"/>
-      <c r="G40" s="80"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="75"/>
       <c r="H40" s="45" t="s">
         <v>111</v>
       </c>
@@ -2582,7 +2618,7 @@
       <c r="J40" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="78"/>
+      <c r="K40" s="70"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2597,10 +2633,10 @@
       <c r="E41" s="50">
         <v>62</v>
       </c>
-      <c r="F41" s="77">
+      <c r="F41" s="69">
         <v>64</v>
       </c>
-      <c r="G41" s="81" t="s">
+      <c r="G41" s="71" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="45">
@@ -2612,7 +2648,7 @@
       <c r="J41" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="77">
+      <c r="K41" s="69">
         <v>3</v>
       </c>
     </row>
@@ -2629,8 +2665,8 @@
       <c r="E42" s="43">
         <v>61</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="82"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="45" t="s">
         <v>111</v>
       </c>
@@ -2640,7 +2676,7 @@
       <c r="J42" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="78"/>
+      <c r="K42" s="70"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
@@ -2675,22 +2711,22 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="99">
         <v>20</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="100">
         <v>62</v>
       </c>
-      <c r="F46" s="81">
+      <c r="F46" s="101">
         <v>64</v>
       </c>
-      <c r="G46" s="81" t="s">
+      <c r="G46" s="101" t="s">
         <v>209</v>
       </c>
       <c r="H46" s="40"/>
@@ -2699,42 +2735,42 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="99">
         <v>20</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="100">
         <v>61</v>
       </c>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="99" t="s">
         <v>216</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="99">
         <v>20</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="100">
         <v>61</v>
       </c>
-      <c r="F48" s="81">
+      <c r="F48" s="101">
         <v>63</v>
       </c>
-      <c r="G48" s="79" t="s">
+      <c r="G48" s="103" t="s">
         <v>218</v>
       </c>
       <c r="H48" s="40"/>
@@ -2743,42 +2779,42 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="73" t="s">
+      <c r="C49" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="99">
         <v>20</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="100">
         <v>60</v>
       </c>
-      <c r="F49" s="82"/>
-      <c r="G49" s="80"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="105"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="99">
         <v>20</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="100">
         <v>62</v>
       </c>
-      <c r="F50" s="67">
+      <c r="F50" s="106">
         <v>64</v>
       </c>
-      <c r="G50" s="68" t="s">
+      <c r="G50" s="107" t="s">
         <v>222</v>
       </c>
       <c r="H50" s="1"/>
@@ -2787,22 +2823,22 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="99">
         <v>20</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="100">
         <v>60</v>
       </c>
-      <c r="F51" s="81">
+      <c r="F51" s="101">
         <v>63</v>
       </c>
-      <c r="G51" s="79" t="s">
+      <c r="G51" s="103" t="s">
         <v>223</v>
       </c>
       <c r="H51" s="40"/>
@@ -2811,42 +2847,42 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="99">
         <v>21</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="100">
         <v>60</v>
       </c>
-      <c r="F52" s="82"/>
-      <c r="G52" s="80"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="105"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="99">
         <v>20</v>
       </c>
-      <c r="E53" s="48">
+      <c r="E53" s="100">
         <v>60</v>
       </c>
-      <c r="F53" s="69">
+      <c r="F53" s="109">
         <v>63</v>
       </c>
-      <c r="G53" s="75" t="s">
+      <c r="G53" s="110" t="s">
         <v>224</v>
       </c>
       <c r="H53" s="1"/>
@@ -2867,13 +2903,13 @@
       <c r="D54" s="1">
         <v>20</v>
       </c>
-      <c r="E54" s="72">
+      <c r="E54" s="68">
         <v>62</v>
       </c>
-      <c r="F54" s="81">
+      <c r="F54" s="71">
         <v>65</v>
       </c>
-      <c r="G54" s="81" t="s">
+      <c r="G54" s="71" t="s">
         <v>246</v>
       </c>
       <c r="H54" s="1"/>
@@ -2894,11 +2930,11 @@
       <c r="D55" s="1">
         <v>22</v>
       </c>
-      <c r="E55" s="72">
+      <c r="E55" s="68">
         <v>62</v>
       </c>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2985,10 +3021,10 @@
       <c r="E60" s="48">
         <v>60</v>
       </c>
-      <c r="F60" s="77">
+      <c r="F60" s="69">
         <v>63</v>
       </c>
-      <c r="G60" s="79" t="s">
+      <c r="G60" s="74" t="s">
         <v>229</v>
       </c>
       <c r="H60" s="40"/>
@@ -3009,8 +3045,8 @@
       <c r="E61" s="48">
         <v>62</v>
       </c>
-      <c r="F61" s="78"/>
-      <c r="G61" s="80"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="75"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3052,7 +3088,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
         <v>230</v>
       </c>
@@ -3084,23 +3120,23 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="99">
         <v>20</v>
       </c>
-      <c r="E66" s="48">
+      <c r="E66" s="100">
         <v>60</v>
       </c>
-      <c r="F66" s="77">
+      <c r="F66" s="111">
         <v>63</v>
       </c>
-      <c r="G66" s="79" t="s">
+      <c r="G66" s="103" t="s">
         <v>250</v>
       </c>
       <c r="H66" s="40"/>
@@ -3108,43 +3144,43 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="99">
         <v>20</v>
       </c>
-      <c r="E67" s="48">
+      <c r="E67" s="100">
         <v>60</v>
       </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="80"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="105"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="99">
         <v>20</v>
       </c>
-      <c r="E68" s="48">
+      <c r="E68" s="100">
         <v>62</v>
       </c>
-      <c r="F68" s="70">
+      <c r="F68" s="113">
         <v>63</v>
       </c>
-      <c r="G68" s="79" t="s">
+      <c r="G68" s="103" t="s">
         <v>251</v>
       </c>
       <c r="H68" s="40"/>
@@ -3152,21 +3188,24 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="80"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="105"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>247</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>248</v>
       </c>
@@ -3179,10 +3218,10 @@
       <c r="E70" s="48">
         <v>61</v>
       </c>
-      <c r="F70" s="81">
+      <c r="F70" s="71">
         <v>64</v>
       </c>
-      <c r="G70" s="79" t="s">
+      <c r="G70" s="74" t="s">
         <v>252</v>
       </c>
       <c r="H70" s="40"/>
@@ -3190,7 +3229,10 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>247</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>249</v>
       </c>
@@ -3203,14 +3245,14 @@
       <c r="E71" s="48">
         <v>62</v>
       </c>
-      <c r="F71" s="82"/>
-      <c r="G71" s="80"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="75"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
@@ -3222,7 +3264,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
@@ -3234,7 +3276,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
@@ -3246,23 +3288,23 @@
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="71" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>154</v>
@@ -3283,7 +3325,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>196</v>
       </c>
@@ -3297,14 +3339,14 @@
         <v>169</v>
       </c>
       <c r="F79" s="39"/>
-      <c r="G79" s="86" t="s">
+      <c r="G79" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="H79" s="86" t="s">
+      <c r="H79" s="87" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>197</v>
       </c>
@@ -3318,20 +3360,20 @@
         <v>170</v>
       </c>
       <c r="F80" s="39"/>
-      <c r="G80" s="86"/>
-      <c r="H80" s="86"/>
+      <c r="G80" s="87"/>
+      <c r="H80" s="87"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H83" s="85" t="s">
+      <c r="H83" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I83" s="85"/>
-      <c r="J83" s="85"/>
-      <c r="K83" s="85"/>
+      <c r="I83" s="73"/>
+      <c r="J83" s="73"/>
+      <c r="K83" s="73"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="21" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="C84" s="22" t="s">
         <v>154</v>
@@ -3362,106 +3404,106 @@
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="99">
         <v>32</v>
       </c>
-      <c r="E85" s="48" t="s">
+      <c r="E85" s="100" t="s">
         <v>176</v>
       </c>
       <c r="F85" s="39"/>
-      <c r="G85" s="77" t="s">
+      <c r="G85" s="69" t="s">
         <v>177</v>
       </c>
       <c r="H85" s="40"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-      <c r="L85" s="84" t="s">
+      <c r="L85" s="89" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="99">
         <v>32</v>
       </c>
-      <c r="E86" s="48" t="s">
+      <c r="E86" s="100" t="s">
         <v>176</v>
       </c>
       <c r="F86" s="39"/>
-      <c r="G86" s="78"/>
+      <c r="G86" s="70"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-      <c r="L86" s="84"/>
+      <c r="L86" s="89"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="99">
         <v>64</v>
       </c>
-      <c r="E87" s="48" t="s">
+      <c r="E87" s="100" t="s">
         <v>181</v>
       </c>
       <c r="F87" s="39"/>
-      <c r="G87" s="77" t="s">
+      <c r="G87" s="69" t="s">
         <v>183</v>
       </c>
       <c r="H87" s="40"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="83"/>
+      <c r="L87" s="88"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="99">
         <v>64</v>
       </c>
-      <c r="E88" s="48" t="s">
+      <c r="E88" s="100" t="s">
         <v>182</v>
       </c>
       <c r="F88" s="39"/>
-      <c r="G88" s="78"/>
+      <c r="G88" s="70"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="83"/>
+      <c r="L88" s="88"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H91" s="85" t="s">
+      <c r="H91" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I91" s="85"/>
-      <c r="J91" s="85"/>
-      <c r="K91" s="85"/>
+      <c r="I91" s="73"/>
+      <c r="J91" s="73"/>
+      <c r="K91" s="73"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="21" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="C92" s="22" t="s">
         <v>154</v>
@@ -3492,142 +3534,142 @@
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="99">
         <v>37</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77" t="s">
+      <c r="F93" s="69"/>
+      <c r="G93" s="69" t="s">
         <v>186</v>
       </c>
       <c r="H93" s="40"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-      <c r="L93" s="83" t="s">
+      <c r="L93" s="88" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="99">
         <v>37</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="E94" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="78"/>
-      <c r="G94" s="78"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="70"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-      <c r="L94" s="83"/>
+      <c r="L94" s="88"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="99">
         <v>41</v>
       </c>
-      <c r="E95" s="48">
+      <c r="E95" s="100">
         <v>80.16</v>
       </c>
-      <c r="F95" s="77"/>
-      <c r="G95" s="77" t="s">
+      <c r="F95" s="69"/>
+      <c r="G95" s="69" t="s">
         <v>186</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-      <c r="L95" s="83" t="s">
+      <c r="L95" s="88" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="99">
         <v>41</v>
       </c>
-      <c r="E96" s="48">
+      <c r="E96" s="100">
         <v>80.16</v>
       </c>
-      <c r="F96" s="78"/>
-      <c r="G96" s="78"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="70"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-      <c r="L96" s="83"/>
+      <c r="L96" s="88"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="99">
         <v>41</v>
       </c>
-      <c r="E97" s="48">
+      <c r="E97" s="100">
         <v>80.16</v>
       </c>
-      <c r="F97" s="77"/>
-      <c r="G97" s="77" t="s">
+      <c r="F97" s="69"/>
+      <c r="G97" s="69" t="s">
         <v>186</v>
       </c>
       <c r="H97" s="40"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-      <c r="L97" s="83" t="s">
+      <c r="L97" s="88" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="99">
         <v>41</v>
       </c>
-      <c r="E98" s="48">
+      <c r="E98" s="100">
         <v>80.16</v>
       </c>
-      <c r="F98" s="78"/>
-      <c r="G98" s="78"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="70"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="83"/>
+      <c r="L98" s="88"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="21" t="s">
@@ -3719,6 +3761,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="K28:K29"/>
@@ -3735,62 +3833,6 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G68:G69"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3815,11 +3857,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3841,7 +3883,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="97" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -3852,7 +3894,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="106"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
@@ -3861,7 +3903,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="93" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3875,7 +3917,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -3896,7 +3938,7 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="95" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="42" t="s">
@@ -3907,7 +3949,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="104"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
@@ -3916,7 +3958,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="104"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
@@ -3928,7 +3970,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="104"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
@@ -3940,7 +3982,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="93" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3952,7 +3994,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="101"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
@@ -3986,7 +4028,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="79"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
@@ -3996,7 +4038,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="80"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
@@ -4040,7 +4082,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="93" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -4051,7 +4093,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="101"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
@@ -4060,7 +4102,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="101"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
@@ -4069,7 +4111,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="101"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="17" t="s">
         <v>41</v>
       </c>
@@ -4078,7 +4120,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="87" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -4089,7 +4131,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="86"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
@@ -4098,7 +4140,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="90" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -4109,7 +4151,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="99"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
@@ -4118,7 +4160,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="100"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="17" t="s">
         <v>51</v>
       </c>

--- a/Bases de datos/primers diseño clonaje.xlsx
+++ b/Bases de datos/primers diseño clonaje.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DADFEB-5884-449A-916E-3BD596435D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26226F1-5C9E-4311-9FDC-937D66B8D00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1440" yWindow="1770" windowWidth="3825" windowHeight="5535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mario + Daniel" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="266">
   <si>
     <t>Mouse</t>
   </si>
@@ -786,9 +786,6 @@
     <t>3425pb (8mer,7mer8 y 7merA1)</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>hDHCR24_fw3</t>
   </si>
   <si>
@@ -823,6 +820,27 @@
   </si>
   <si>
     <t>mLSSpm 3'UTR</t>
+  </si>
+  <si>
+    <t>ACCACTGGGTTACCTCCCA</t>
+  </si>
+  <si>
+    <t>GCTCACTATAGCTGTGGCT</t>
+  </si>
+  <si>
+    <t>Desde las 1756pb</t>
+  </si>
+  <si>
+    <t>Desde las 1939pb</t>
+  </si>
+  <si>
+    <t>SEQ mSC5D 3'UTR</t>
+  </si>
+  <si>
+    <t>SEQ mSC5D_fw1</t>
+  </si>
+  <si>
+    <t>SEQ mSC5D_fw2</t>
   </si>
 </sst>
 </file>
@@ -921,7 +939,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,12 +991,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,7 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1256,106 +1268,38 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1365,24 +1309,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,10 +1336,82 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1677,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:O105"/>
+  <dimension ref="A2:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,12 +1717,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -1751,10 +1769,10 @@
       <c r="E4" s="47">
         <v>64</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="100">
         <v>67</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="95" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="19">
@@ -1766,7 +1784,7 @@
       <c r="J4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="71">
+      <c r="K4" s="87">
         <v>2</v>
       </c>
       <c r="M4" s="52" t="s">
@@ -1786,8 +1804,8 @@
       <c r="E5" s="47">
         <v>64</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="82"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="19" t="s">
         <v>111</v>
       </c>
@@ -1797,7 +1815,7 @@
       <c r="J5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="88"/>
       <c r="M5" s="51" t="s">
         <v>155</v>
       </c>
@@ -1815,10 +1833,10 @@
       <c r="E6" s="47">
         <v>61</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="100">
         <v>64</v>
       </c>
-      <c r="G6" s="82"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="19">
         <v>1</v>
       </c>
@@ -1828,7 +1846,7 @@
       <c r="J6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="87">
         <v>1</v>
       </c>
       <c r="M6" t="s">
@@ -1848,8 +1866,8 @@
       <c r="E7" s="47">
         <v>62</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="82"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="19" t="s">
         <v>111</v>
       </c>
@@ -1859,15 +1877,15 @@
       <c r="J7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="72"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="9" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
@@ -1914,10 +1932,10 @@
       <c r="E11" s="48">
         <v>61</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="83">
         <v>64</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="98" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="19" t="s">
@@ -1929,7 +1947,7 @@
       <c r="J11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="71"/>
+      <c r="K11" s="87"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="57" t="s">
@@ -1944,8 +1962,8 @@
       <c r="E12" s="48">
         <v>61</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="85"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="98"/>
       <c r="H12" s="19">
         <v>1</v>
       </c>
@@ -1955,7 +1973,7 @@
       <c r="J12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="72"/>
+      <c r="K12" s="88"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="60" t="s">
@@ -1970,10 +1988,10 @@
       <c r="E13" s="61">
         <v>58</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="102">
         <v>61</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="99" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="62">
@@ -1985,7 +2003,7 @@
       <c r="J13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="76"/>
+      <c r="K13" s="104"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
@@ -2000,8 +2018,8 @@
       <c r="E14" s="61">
         <v>60</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="86"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="99"/>
       <c r="H14" s="62" t="s">
         <v>111</v>
       </c>
@@ -2011,7 +2029,7 @@
       <c r="J14" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="77"/>
+      <c r="K14" s="105"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="63" t="s">
@@ -2044,12 +2062,12 @@
       <c r="K15" s="35"/>
     </row>
     <row r="17" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
@@ -2105,10 +2123,10 @@
       <c r="E19" s="48">
         <v>61</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="83">
         <v>63</v>
       </c>
-      <c r="G19" s="82" t="s">
+      <c r="G19" s="95" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="19">
@@ -2120,7 +2138,7 @@
       <c r="J19" s="19">
         <v>3</v>
       </c>
-      <c r="K19" s="71">
+      <c r="K19" s="87">
         <v>2</v>
       </c>
       <c r="M19" t="s">
@@ -2146,8 +2164,8 @@
       <c r="E20" s="48">
         <v>60</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="82"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="19" t="s">
         <v>111</v>
       </c>
@@ -2157,7 +2175,7 @@
       <c r="J20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="72"/>
+      <c r="K20" s="88"/>
       <c r="M20" s="53" t="s">
         <v>161</v>
       </c>
@@ -2181,10 +2199,10 @@
       <c r="E21" s="48">
         <v>61</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="83">
         <v>64</v>
       </c>
-      <c r="G21" s="82" t="s">
+      <c r="G21" s="95" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="19" t="s">
@@ -2196,7 +2214,7 @@
       <c r="J21" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="71">
+      <c r="K21" s="87">
         <v>2</v>
       </c>
     </row>
@@ -2213,8 +2231,8 @@
       <c r="E22" s="48">
         <v>62</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="82"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="95"/>
       <c r="H22" s="19" t="s">
         <v>111</v>
       </c>
@@ -2224,7 +2242,7 @@
       <c r="J22" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="72"/>
+      <c r="K22" s="88"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -2239,10 +2257,10 @@
       <c r="E23" s="48">
         <v>60</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F23" s="83">
         <v>63</v>
       </c>
-      <c r="G23" s="82" t="s">
+      <c r="G23" s="95" t="s">
         <v>108</v>
       </c>
       <c r="H23" s="19" t="s">
@@ -2254,7 +2272,7 @@
       <c r="J23" s="19">
         <v>1</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="87" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2271,8 +2289,8 @@
       <c r="E24" s="48">
         <v>62</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="82"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="95"/>
       <c r="H24" s="19" t="s">
         <v>111</v>
       </c>
@@ -2282,7 +2300,7 @@
       <c r="J24" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="72"/>
+      <c r="K24" s="88"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
@@ -2293,12 +2311,12 @@
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
@@ -2345,10 +2363,10 @@
       <c r="E28" s="43">
         <v>60</v>
       </c>
-      <c r="F28" s="69">
+      <c r="F28" s="83">
         <v>63</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="96" t="s">
         <v>156</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -2360,7 +2378,7 @@
       <c r="J28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="69" t="s">
+      <c r="K28" s="83" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2377,8 +2395,8 @@
       <c r="E29" s="43">
         <v>63</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="97"/>
       <c r="H29" s="19" t="s">
         <v>111</v>
       </c>
@@ -2388,7 +2406,7 @@
       <c r="J29" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="70"/>
+      <c r="K29" s="84"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -2399,10 +2417,10 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="69">
+      <c r="F30" s="83">
         <v>63</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="96" t="s">
         <v>157</v>
       </c>
       <c r="H30" s="19" t="s">
@@ -2414,7 +2432,7 @@
       <c r="J30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="K30" s="69">
+      <c r="K30" s="83">
         <v>2</v>
       </c>
     </row>
@@ -2431,8 +2449,8 @@
       <c r="E31" s="43">
         <v>61</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="97"/>
       <c r="H31" s="19">
         <v>1</v>
       </c>
@@ -2442,7 +2460,7 @@
       <c r="J31" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="70"/>
+      <c r="K31" s="84"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
@@ -2465,12 +2483,12 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="73" t="s">
+      <c r="H35" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
     </row>
     <row r="36" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
@@ -2517,10 +2535,10 @@
       <c r="E37" s="43">
         <v>61</v>
       </c>
-      <c r="F37" s="69">
+      <c r="F37" s="83">
         <v>64</v>
       </c>
-      <c r="G37" s="71" t="s">
+      <c r="G37" s="87" t="s">
         <v>149</v>
       </c>
       <c r="H37" s="41" t="s">
@@ -2532,7 +2550,7 @@
       <c r="J37" s="41">
         <v>2</v>
       </c>
-      <c r="K37" s="69">
+      <c r="K37" s="83">
         <v>3</v>
       </c>
     </row>
@@ -2549,8 +2567,8 @@
       <c r="E38" s="44">
         <v>61</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="72"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="88"/>
       <c r="H38" s="41" t="s">
         <v>111</v>
       </c>
@@ -2560,7 +2578,7 @@
       <c r="J38" s="41">
         <v>2</v>
       </c>
-      <c r="K38" s="70"/>
+      <c r="K38" s="84"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2575,10 +2593,10 @@
       <c r="E39" s="48">
         <v>60</v>
       </c>
-      <c r="F39" s="69">
+      <c r="F39" s="83">
         <v>63</v>
       </c>
-      <c r="G39" s="74" t="s">
+      <c r="G39" s="85" t="s">
         <v>151</v>
       </c>
       <c r="H39" s="41" t="s">
@@ -2590,7 +2608,7 @@
       <c r="J39" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="69">
+      <c r="K39" s="83">
         <v>2</v>
       </c>
     </row>
@@ -2607,8 +2625,8 @@
       <c r="E40" s="48">
         <v>62</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="75"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="86"/>
       <c r="H40" s="45" t="s">
         <v>111</v>
       </c>
@@ -2618,7 +2636,7 @@
       <c r="J40" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="70"/>
+      <c r="K40" s="84"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2633,10 +2651,10 @@
       <c r="E41" s="50">
         <v>62</v>
       </c>
-      <c r="F41" s="69">
+      <c r="F41" s="83">
         <v>64</v>
       </c>
-      <c r="G41" s="71" t="s">
+      <c r="G41" s="87" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="45">
@@ -2648,7 +2666,7 @@
       <c r="J41" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="69">
+      <c r="K41" s="83">
         <v>3</v>
       </c>
     </row>
@@ -2665,8 +2683,8 @@
       <c r="E42" s="43">
         <v>61</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="72"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="88"/>
       <c r="H42" s="45" t="s">
         <v>111</v>
       </c>
@@ -2676,7 +2694,7 @@
       <c r="J42" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="70"/>
+      <c r="K42" s="84"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
@@ -2711,22 +2729,22 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="99" t="s">
+      <c r="B46" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="99" t="s">
+      <c r="C46" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="99">
+      <c r="D46" s="69">
         <v>20</v>
       </c>
-      <c r="E46" s="100">
+      <c r="E46" s="70">
         <v>62</v>
       </c>
-      <c r="F46" s="101">
+      <c r="F46" s="79">
         <v>64</v>
       </c>
-      <c r="G46" s="101" t="s">
+      <c r="G46" s="79" t="s">
         <v>209</v>
       </c>
       <c r="H46" s="40"/>
@@ -2735,42 +2753,42 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="99" t="s">
+      <c r="B47" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="99" t="s">
+      <c r="C47" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="99">
+      <c r="D47" s="69">
         <v>20</v>
       </c>
-      <c r="E47" s="100">
+      <c r="E47" s="70">
         <v>61</v>
       </c>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="99" t="s">
+      <c r="B48" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="99" t="s">
+      <c r="C48" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="D48" s="99">
+      <c r="D48" s="69">
         <v>20</v>
       </c>
-      <c r="E48" s="100">
+      <c r="E48" s="70">
         <v>61</v>
       </c>
-      <c r="F48" s="101">
+      <c r="F48" s="79">
         <v>63</v>
       </c>
-      <c r="G48" s="103" t="s">
+      <c r="G48" s="81" t="s">
         <v>218</v>
       </c>
       <c r="H48" s="40"/>
@@ -2778,43 +2796,43 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="99" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="D49" s="99">
+      <c r="D49" s="69">
         <v>20</v>
       </c>
-      <c r="E49" s="100">
+      <c r="E49" s="70">
         <v>60</v>
       </c>
-      <c r="F49" s="102"/>
-      <c r="G49" s="105"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="82"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="99" t="s">
+    <row r="50" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="99" t="s">
+      <c r="C50" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="D50" s="99">
+      <c r="D50" s="69">
         <v>20</v>
       </c>
-      <c r="E50" s="100">
+      <c r="E50" s="70">
         <v>62</v>
       </c>
-      <c r="F50" s="106">
+      <c r="F50" s="72">
         <v>64</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="73" t="s">
         <v>222</v>
       </c>
       <c r="H50" s="1"/>
@@ -2822,23 +2840,23 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="99" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="108" t="s">
+      <c r="C51" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="D51" s="99">
+      <c r="D51" s="69">
         <v>20</v>
       </c>
-      <c r="E51" s="100">
+      <c r="E51" s="70">
         <v>60</v>
       </c>
-      <c r="F51" s="101">
+      <c r="F51" s="79">
         <v>63</v>
       </c>
-      <c r="G51" s="103" t="s">
+      <c r="G51" s="81" t="s">
         <v>223</v>
       </c>
       <c r="H51" s="40"/>
@@ -2846,43 +2864,43 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="99" t="s">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="99" t="s">
+      <c r="C52" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="99">
+      <c r="D52" s="69">
         <v>21</v>
       </c>
-      <c r="E52" s="100">
+      <c r="E52" s="70">
         <v>60</v>
       </c>
-      <c r="F52" s="102"/>
-      <c r="G52" s="105"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="82"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="99" t="s">
+    <row r="53" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="99" t="s">
+      <c r="C53" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D53" s="99">
+      <c r="D53" s="69">
         <v>20</v>
       </c>
-      <c r="E53" s="100">
+      <c r="E53" s="70">
         <v>60</v>
       </c>
-      <c r="F53" s="109">
+      <c r="F53" s="75">
         <v>63</v>
       </c>
-      <c r="G53" s="110" t="s">
+      <c r="G53" s="76" t="s">
         <v>224</v>
       </c>
       <c r="H53" s="1"/>
@@ -2890,26 +2908,23 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>247</v>
-      </c>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D54" s="1">
         <v>20</v>
       </c>
-      <c r="E54" s="68">
+      <c r="E54" s="67">
         <v>62</v>
       </c>
-      <c r="F54" s="71">
+      <c r="F54" s="87">
         <v>65</v>
       </c>
-      <c r="G54" s="71" t="s">
+      <c r="G54" s="87" t="s">
         <v>246</v>
       </c>
       <c r="H54" s="1"/>
@@ -2917,890 +2932,961 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>247</v>
-      </c>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D55" s="1">
         <v>22</v>
       </c>
-      <c r="E55" s="68">
+      <c r="E55" s="67">
         <v>62</v>
       </c>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="49"/>
       <c r="F56" s="36"/>
-      <c r="G56" s="34"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="49"/>
-      <c r="F57" s="34"/>
+      <c r="F57" s="36"/>
       <c r="G57" s="34"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C59" s="22" t="s">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D58" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E58" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F59" s="56" t="s">
+      <c r="F58" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G58" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H59" s="24" t="s">
+      <c r="H58" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I59" s="25" t="s">
+      <c r="I58" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J59" s="26" t="s">
+      <c r="J58" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="K59" s="24" t="s">
+      <c r="K58" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D60" s="1">
+    <row r="59" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="116">
         <v>19</v>
       </c>
+      <c r="E59" s="48">
+        <v>59</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="D60" s="116">
+        <v>19</v>
+      </c>
       <c r="E60" s="48">
-        <v>60</v>
-      </c>
-      <c r="F60" s="69">
-        <v>63</v>
-      </c>
-      <c r="G60" s="74" t="s">
-        <v>229</v>
+        <v>62</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="68" t="s">
+        <v>262</v>
       </c>
       <c r="H60" s="40"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D61" s="1">
-        <v>23</v>
-      </c>
-      <c r="E61" s="48">
-        <v>62</v>
-      </c>
-      <c r="F61" s="70"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
+      <c r="F62" s="34"/>
       <c r="G62" s="34"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="21" t="s">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K63" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="1">
+        <v>19</v>
+      </c>
+      <c r="E64" s="48">
+        <v>60</v>
+      </c>
+      <c r="F64" s="83">
+        <v>63</v>
+      </c>
+      <c r="G64" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="H64" s="40"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="1">
+        <v>23</v>
+      </c>
+      <c r="E65" s="48">
+        <v>62</v>
+      </c>
+      <c r="F65" s="84"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C69" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D69" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="55" t="s">
+      <c r="E69" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="56" t="s">
+      <c r="F69" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="G65" s="38" t="s">
+      <c r="G69" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H65" s="24" t="s">
+      <c r="H69" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I65" s="25" t="s">
+      <c r="I69" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J65" s="26" t="s">
+      <c r="J69" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="K65" s="24" t="s">
+      <c r="K69" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="99" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="C66" s="99" t="s">
+      <c r="C70" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="D66" s="99">
+      <c r="D70" s="69">
         <v>20</v>
       </c>
-      <c r="E66" s="100">
+      <c r="E70" s="70">
         <v>60</v>
       </c>
-      <c r="F66" s="111">
+      <c r="F70" s="89">
         <v>63</v>
       </c>
-      <c r="G66" s="103" t="s">
-        <v>250</v>
-      </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="C67" s="99" t="s">
-        <v>240</v>
-      </c>
-      <c r="D67" s="99">
-        <v>20</v>
-      </c>
-      <c r="E67" s="100">
-        <v>60</v>
-      </c>
-      <c r="F67" s="112"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="C68" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="D68" s="99">
-        <v>20</v>
-      </c>
-      <c r="E68" s="100">
-        <v>62</v>
-      </c>
-      <c r="F68" s="113">
-        <v>63</v>
-      </c>
-      <c r="G68" s="103" t="s">
-        <v>251</v>
-      </c>
-      <c r="H68" s="40"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="99" t="s">
-        <v>234</v>
-      </c>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>247</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D70" s="1">
-        <v>20</v>
-      </c>
-      <c r="E70" s="48">
-        <v>61</v>
-      </c>
-      <c r="F70" s="71">
-        <v>64</v>
-      </c>
-      <c r="G70" s="74" t="s">
-        <v>252</v>
+      <c r="G70" s="81" t="s">
+        <v>249</v>
       </c>
       <c r="H70" s="40"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>247</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D71" s="1">
-        <v>19</v>
-      </c>
-      <c r="E71" s="48">
-        <v>62</v>
-      </c>
-      <c r="F71" s="72"/>
-      <c r="G71" s="75"/>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="69">
+        <v>20</v>
+      </c>
+      <c r="E71" s="70">
+        <v>60</v>
+      </c>
+      <c r="F71" s="90"/>
+      <c r="G71" s="82"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="67" t="s">
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="69">
+        <v>20</v>
+      </c>
+      <c r="E72" s="70">
+        <v>62</v>
+      </c>
+      <c r="F72" s="77">
+        <v>63</v>
+      </c>
+      <c r="G72" s="81" t="s">
+        <v>250</v>
+      </c>
+      <c r="H72" s="40"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" s="1">
+        <v>20</v>
+      </c>
+      <c r="E74" s="48">
+        <v>61</v>
+      </c>
+      <c r="F74" s="87">
+        <v>64</v>
+      </c>
+      <c r="G74" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="H74" s="40"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" s="1">
+        <v>19</v>
+      </c>
+      <c r="E75" s="48">
+        <v>62</v>
+      </c>
+      <c r="F75" s="88"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="54"/>
+      <c r="B79" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="21" t="s">
+      <c r="C79" s="115"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="115"/>
+      <c r="F79" s="115"/>
+      <c r="G79" s="115"/>
+      <c r="H79" s="115"/>
+      <c r="I79" s="115"/>
+      <c r="J79" s="115"/>
+      <c r="K79" s="115"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="1">
+        <v>36</v>
+      </c>
+      <c r="E83" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" s="39"/>
+      <c r="G83" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="H83" s="94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" s="1">
+        <v>36</v>
+      </c>
+      <c r="E84" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" s="39"/>
+      <c r="G84" s="94"/>
+      <c r="H84" s="94"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H87" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="I87" s="93"/>
+      <c r="J87" s="93"/>
+      <c r="K87" s="93"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C88" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D88" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E78" s="55" t="s">
+      <c r="E88" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="56" t="s">
+      <c r="F88" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="G88" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D79" s="1">
-        <v>36</v>
-      </c>
-      <c r="E79" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="F79" s="39"/>
-      <c r="G79" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="H79" s="87" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D80" s="1">
-        <v>36</v>
-      </c>
-      <c r="E80" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="F80" s="39"/>
-      <c r="G80" s="87"/>
-      <c r="H80" s="87"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H83" s="73" t="s">
+      <c r="H88" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I88" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J88" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" s="69">
+        <v>32</v>
+      </c>
+      <c r="E89" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" s="39"/>
+      <c r="G89" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="H89" s="40"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="69">
+        <v>32</v>
+      </c>
+      <c r="E90" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" s="39"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" s="69">
+        <v>64</v>
+      </c>
+      <c r="E91" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="F91" s="39"/>
+      <c r="G91" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="H91" s="40"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="92" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="69">
+        <v>64</v>
+      </c>
+      <c r="E92" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" s="39"/>
+      <c r="G92" s="84"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="92"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L93" s="91"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L94" s="91"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H95" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="I83" s="73"/>
-      <c r="J83" s="73"/>
-      <c r="K83" s="73"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="21" t="s">
+      <c r="I95" s="93"/>
+      <c r="J95" s="93"/>
+      <c r="K95" s="93"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C96" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D96" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="55" t="s">
+      <c r="E96" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F84" s="56" t="s">
+      <c r="F96" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="G84" s="38" t="s">
+      <c r="G96" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H84" s="24" t="s">
+      <c r="H96" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I84" s="25" t="s">
+      <c r="I96" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J84" s="26" t="s">
+      <c r="J96" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="K84" s="24" t="s">
+      <c r="K96" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="C85" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="D85" s="99">
-        <v>32</v>
-      </c>
-      <c r="E85" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="F85" s="39"/>
-      <c r="G85" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H85" s="40"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="C86" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" s="99">
-        <v>32</v>
-      </c>
-      <c r="E86" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="F86" s="39"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="89"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C87" s="99" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87" s="99">
-        <v>64</v>
-      </c>
-      <c r="E87" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="F87" s="39"/>
-      <c r="G87" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="H87" s="40"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="88"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="99" t="s">
-        <v>201</v>
-      </c>
-      <c r="C88" s="99" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="99">
-        <v>64</v>
-      </c>
-      <c r="E88" s="100" t="s">
-        <v>182</v>
-      </c>
-      <c r="F88" s="39"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="88"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H91" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="I91" s="73"/>
-      <c r="J91" s="73"/>
-      <c r="K91" s="73"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E92" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F92" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G92" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H92" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I92" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J92" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="K92" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="99" t="s">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="99" t="s">
+      <c r="C97" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="D93" s="99">
+      <c r="D97" s="69">
         <v>37</v>
       </c>
-      <c r="E93" s="100" t="s">
+      <c r="E97" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="H93" s="40"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="88" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="99" t="s">
-        <v>203</v>
-      </c>
-      <c r="C94" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="D94" s="99">
-        <v>37</v>
-      </c>
-      <c r="E94" s="100" t="s">
-        <v>191</v>
-      </c>
-      <c r="F94" s="70"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="88"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="99" t="s">
-        <v>204</v>
-      </c>
-      <c r="C95" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" s="99">
-        <v>41</v>
-      </c>
-      <c r="E95" s="100">
-        <v>80.16</v>
-      </c>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="88" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="C96" s="99" t="s">
-        <v>189</v>
-      </c>
-      <c r="D96" s="99">
-        <v>41</v>
-      </c>
-      <c r="E96" s="100">
-        <v>80.16</v>
-      </c>
-      <c r="F96" s="70"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="88"/>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="C97" s="99" t="s">
-        <v>192</v>
-      </c>
-      <c r="D97" s="99">
-        <v>41</v>
-      </c>
-      <c r="E97" s="100">
-        <v>80.16</v>
-      </c>
-      <c r="F97" s="69"/>
-      <c r="G97" s="69" t="s">
+      <c r="F97" s="83"/>
+      <c r="G97" s="83" t="s">
         <v>186</v>
       </c>
       <c r="H97" s="40"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-      <c r="L97" s="88" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="C98" s="99" t="s">
-        <v>193</v>
-      </c>
-      <c r="D98" s="99">
-        <v>41</v>
-      </c>
-      <c r="E98" s="100">
-        <v>80.16</v>
-      </c>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70"/>
+      <c r="B98" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" s="69">
+        <v>37</v>
+      </c>
+      <c r="E98" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="F98" s="84"/>
+      <c r="G98" s="84"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="88"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" s="69">
+        <v>41</v>
+      </c>
+      <c r="E99" s="70">
+        <v>80.16</v>
+      </c>
+      <c r="F99" s="83"/>
+      <c r="G99" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="91" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="D100" s="69">
+        <v>41</v>
+      </c>
+      <c r="E100" s="70">
+        <v>80.16</v>
+      </c>
+      <c r="F100" s="84"/>
+      <c r="G100" s="84"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="91"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F101" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G101" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I101" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J101" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="K101" s="24" t="s">
-        <v>127</v>
+      <c r="B101" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="69">
+        <v>41</v>
+      </c>
+      <c r="E101" s="70">
+        <v>80.16</v>
+      </c>
+      <c r="F101" s="83"/>
+      <c r="G101" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="H101" s="40"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="91" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="40"/>
+      <c r="B102" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D102" s="69">
+        <v>41</v>
+      </c>
+      <c r="E102" s="70">
+        <v>80.16</v>
+      </c>
+      <c r="F102" s="84"/>
+      <c r="G102" s="84"/>
+      <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
+      <c r="L102" s="91"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
+      <c r="L103" s="91" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L104" s="91"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E105" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G105" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I105" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J105" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K105" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G46:G47"/>
     <mergeCell ref="F46:F47"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H9:K9"/>
@@ -3817,22 +3903,46 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G72:G73"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3857,11 +3967,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3883,7 +3993,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="113" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -3894,7 +4004,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="98"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
@@ -3903,7 +4013,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="109" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3917,7 +4027,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="93"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -3938,7 +4048,7 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="111" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="42" t="s">
@@ -3949,7 +4059,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="96"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
@@ -3958,7 +4068,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="96"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
@@ -3970,7 +4080,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="96"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
@@ -3982,7 +4092,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="109" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3994,7 +4104,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="93"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
@@ -4028,7 +4138,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="74"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
@@ -4038,7 +4148,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="75"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
@@ -4082,7 +4192,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="109" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -4093,7 +4203,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="93"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
@@ -4102,7 +4212,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="93"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
@@ -4111,7 +4221,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="93"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="17" t="s">
         <v>41</v>
       </c>
@@ -4120,7 +4230,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="94" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -4131,7 +4241,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="87"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
@@ -4140,7 +4250,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="106" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -4151,7 +4261,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="91"/>
+      <c r="B39" s="107"/>
       <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
@@ -4160,7 +4270,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="92"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="17" t="s">
         <v>51</v>
       </c>

--- a/Bases de datos/primers diseño clonaje.xlsx
+++ b/Bases de datos/primers diseño clonaje.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26226F1-5C9E-4311-9FDC-937D66B8D00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D916731D-A940-4578-A880-B78F9F6D40D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1440" yWindow="1770" windowWidth="3825" windowHeight="5535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mario + Daniel" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="292">
   <si>
     <t>Mouse</t>
   </si>
@@ -841,6 +841,84 @@
   </si>
   <si>
     <t>SEQ mSC5D_fw2</t>
+  </si>
+  <si>
+    <t>mSDHD 3'UTR</t>
+  </si>
+  <si>
+    <t>mSDHD_fw1</t>
+  </si>
+  <si>
+    <t>mSDHD_rv1</t>
+  </si>
+  <si>
+    <t>mSDHD_fw2</t>
+  </si>
+  <si>
+    <t>mSDHD_rv2</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcCTCATTAACAACTCCCACGGT</t>
+  </si>
+  <si>
+    <t>CCCctcgagCCTGGGTGCAGCACTTTGAT</t>
+  </si>
+  <si>
+    <t>686pb (7mer8)</t>
+  </si>
+  <si>
+    <t>CCCctcgagCCTTGCCTCTGCTTTACCAA</t>
+  </si>
+  <si>
+    <t>63 (con rv1)</t>
+  </si>
+  <si>
+    <t>657pb (7mer8)</t>
+  </si>
+  <si>
+    <t>hSDHC 3'UTR</t>
+  </si>
+  <si>
+    <t>hSDHC_fw1</t>
+  </si>
+  <si>
+    <t>hSDHC_rv1</t>
+  </si>
+  <si>
+    <t>hSDHC_fw2</t>
+  </si>
+  <si>
+    <t>hSDHC_rv2</t>
+  </si>
+  <si>
+    <t>CCCctcgagGGAGGCTCCCAGCATCATC</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcCCATTCTTGCTATGGCTGCC</t>
+  </si>
+  <si>
+    <t>CCCctcgagGCCCACAGCTTGCCTACT</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcGGGCAGAACCTCAAAGAACC</t>
+  </si>
+  <si>
+    <t>2278pb (8mer, verde)</t>
+  </si>
+  <si>
+    <t>1883pb (8mer, azul)</t>
+  </si>
+  <si>
+    <t>2 (una de 10pb)</t>
+  </si>
+  <si>
+    <t>3 (1)</t>
+  </si>
+  <si>
+    <t>2 (3pb)</t>
+  </si>
+  <si>
+    <t>3 (todas por seq ER)</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1123,12 +1201,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1300,6 +1389,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1313,23 +1426,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1342,39 +1443,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1408,11 +1518,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1695,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:O109"/>
+  <dimension ref="A2:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1831,7 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="28.42578125" customWidth="1"/>
@@ -1717,12 +1839,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -1769,10 +1891,10 @@
       <c r="E4" s="47">
         <v>64</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="106">
         <v>67</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="101" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="19">
@@ -1784,7 +1906,7 @@
       <c r="J4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="87">
+      <c r="K4" s="85">
         <v>2</v>
       </c>
       <c r="M4" s="52" t="s">
@@ -1804,8 +1926,8 @@
       <c r="E5" s="47">
         <v>64</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="95"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="19" t="s">
         <v>111</v>
       </c>
@@ -1815,7 +1937,7 @@
       <c r="J5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="88"/>
+      <c r="K5" s="86"/>
       <c r="M5" s="51" t="s">
         <v>155</v>
       </c>
@@ -1833,10 +1955,10 @@
       <c r="E6" s="47">
         <v>61</v>
       </c>
-      <c r="F6" s="100">
+      <c r="F6" s="106">
         <v>64</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="19">
         <v>1</v>
       </c>
@@ -1846,7 +1968,7 @@
       <c r="J6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="85">
         <v>1</v>
       </c>
       <c r="M6" t="s">
@@ -1866,8 +1988,8 @@
       <c r="E7" s="47">
         <v>62</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="95"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="19" t="s">
         <v>111</v>
       </c>
@@ -1877,15 +1999,15 @@
       <c r="J7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="88"/>
+      <c r="K7" s="86"/>
     </row>
     <row r="9" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
@@ -1935,7 +2057,7 @@
       <c r="F11" s="83">
         <v>64</v>
       </c>
-      <c r="G11" s="98" t="s">
+      <c r="G11" s="104" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="19" t="s">
@@ -1947,7 +2069,7 @@
       <c r="J11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="87"/>
+      <c r="K11" s="85"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="57" t="s">
@@ -1963,7 +2085,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="84"/>
-      <c r="G12" s="98"/>
+      <c r="G12" s="104"/>
       <c r="H12" s="19">
         <v>1</v>
       </c>
@@ -1973,7 +2095,7 @@
       <c r="J12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="88"/>
+      <c r="K12" s="86"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="60" t="s">
@@ -1988,10 +2110,10 @@
       <c r="E13" s="61">
         <v>58</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="108">
         <v>61</v>
       </c>
-      <c r="G13" s="99" t="s">
+      <c r="G13" s="105" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="62">
@@ -2003,7 +2125,7 @@
       <c r="J13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="104"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
@@ -2018,8 +2140,8 @@
       <c r="E14" s="61">
         <v>60</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="99"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="62" t="s">
         <v>111</v>
       </c>
@@ -2029,7 +2151,7 @@
       <c r="J14" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="105"/>
+      <c r="K14" s="112"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="63" t="s">
@@ -2062,12 +2184,12 @@
       <c r="K15" s="35"/>
     </row>
     <row r="17" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="93" t="s">
+      <c r="H17" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
@@ -2126,7 +2248,7 @@
       <c r="F19" s="83">
         <v>63</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="101" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="19">
@@ -2138,7 +2260,7 @@
       <c r="J19" s="19">
         <v>3</v>
       </c>
-      <c r="K19" s="87">
+      <c r="K19" s="85">
         <v>2</v>
       </c>
       <c r="M19" t="s">
@@ -2165,7 +2287,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="84"/>
-      <c r="G20" s="95"/>
+      <c r="G20" s="101"/>
       <c r="H20" s="19" t="s">
         <v>111</v>
       </c>
@@ -2175,7 +2297,7 @@
       <c r="J20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="88"/>
+      <c r="K20" s="86"/>
       <c r="M20" s="53" t="s">
         <v>161</v>
       </c>
@@ -2202,7 +2324,7 @@
       <c r="F21" s="83">
         <v>64</v>
       </c>
-      <c r="G21" s="95" t="s">
+      <c r="G21" s="101" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="19" t="s">
@@ -2214,7 +2336,7 @@
       <c r="J21" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="87">
+      <c r="K21" s="85">
         <v>2</v>
       </c>
     </row>
@@ -2232,7 +2354,7 @@
         <v>62</v>
       </c>
       <c r="F22" s="84"/>
-      <c r="G22" s="95"/>
+      <c r="G22" s="101"/>
       <c r="H22" s="19" t="s">
         <v>111</v>
       </c>
@@ -2242,7 +2364,7 @@
       <c r="J22" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="88"/>
+      <c r="K22" s="86"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -2260,7 +2382,7 @@
       <c r="F23" s="83">
         <v>63</v>
       </c>
-      <c r="G23" s="95" t="s">
+      <c r="G23" s="101" t="s">
         <v>108</v>
       </c>
       <c r="H23" s="19" t="s">
@@ -2272,7 +2394,7 @@
       <c r="J23" s="19">
         <v>1</v>
       </c>
-      <c r="K23" s="87" t="s">
+      <c r="K23" s="85" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2290,7 +2412,7 @@
         <v>62</v>
       </c>
       <c r="F24" s="84"/>
-      <c r="G24" s="95"/>
+      <c r="G24" s="101"/>
       <c r="H24" s="19" t="s">
         <v>111</v>
       </c>
@@ -2300,7 +2422,7 @@
       <c r="J24" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="88"/>
+      <c r="K24" s="86"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
@@ -2311,12 +2433,12 @@
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
@@ -2366,7 +2488,7 @@
       <c r="F28" s="83">
         <v>63</v>
       </c>
-      <c r="G28" s="96" t="s">
+      <c r="G28" s="102" t="s">
         <v>156</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -2396,7 +2518,7 @@
         <v>63</v>
       </c>
       <c r="F29" s="84"/>
-      <c r="G29" s="97"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="19" t="s">
         <v>111</v>
       </c>
@@ -2409,58 +2531,58 @@
       <c r="K29" s="84"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="83">
+      <c r="D30" s="35"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="120">
         <v>63</v>
       </c>
-      <c r="G30" s="96" t="s">
+      <c r="G30" s="125" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="K30" s="83">
+      <c r="K30" s="120">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="35">
         <v>20</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="59">
         <v>61</v>
       </c>
-      <c r="F31" s="84"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="19">
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="59">
         <v>1</v>
       </c>
-      <c r="I31" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="J31" s="19" t="s">
+      <c r="I31" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="84"/>
+      <c r="K31" s="126"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
@@ -2483,12 +2605,12 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="93" t="s">
+      <c r="H35" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
     </row>
     <row r="36" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
@@ -2538,7 +2660,7 @@
       <c r="F37" s="83">
         <v>64</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="G37" s="85" t="s">
         <v>149</v>
       </c>
       <c r="H37" s="41" t="s">
@@ -2568,7 +2690,7 @@
         <v>61</v>
       </c>
       <c r="F38" s="84"/>
-      <c r="G38" s="88"/>
+      <c r="G38" s="86"/>
       <c r="H38" s="41" t="s">
         <v>111</v>
       </c>
@@ -2596,7 +2718,7 @@
       <c r="F39" s="83">
         <v>63</v>
       </c>
-      <c r="G39" s="85" t="s">
+      <c r="G39" s="91" t="s">
         <v>151</v>
       </c>
       <c r="H39" s="41" t="s">
@@ -2626,7 +2748,7 @@
         <v>62</v>
       </c>
       <c r="F40" s="84"/>
-      <c r="G40" s="86"/>
+      <c r="G40" s="92"/>
       <c r="H40" s="45" t="s">
         <v>111</v>
       </c>
@@ -2654,7 +2776,7 @@
       <c r="F41" s="83">
         <v>64</v>
       </c>
-      <c r="G41" s="87" t="s">
+      <c r="G41" s="85" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="45">
@@ -2684,7 +2806,7 @@
         <v>61</v>
       </c>
       <c r="F42" s="84"/>
-      <c r="G42" s="88"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="45" t="s">
         <v>111</v>
       </c>
@@ -2741,10 +2863,10 @@
       <c r="E46" s="70">
         <v>62</v>
       </c>
-      <c r="F46" s="79">
+      <c r="F46" s="87">
         <v>64</v>
       </c>
-      <c r="G46" s="79" t="s">
+      <c r="G46" s="87" t="s">
         <v>209</v>
       </c>
       <c r="H46" s="40"/>
@@ -2765,8 +2887,8 @@
       <c r="E47" s="70">
         <v>61</v>
       </c>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2785,10 +2907,10 @@
       <c r="E48" s="70">
         <v>61</v>
       </c>
-      <c r="F48" s="79">
+      <c r="F48" s="87">
         <v>63</v>
       </c>
-      <c r="G48" s="81" t="s">
+      <c r="G48" s="89" t="s">
         <v>218</v>
       </c>
       <c r="H48" s="40"/>
@@ -2809,8 +2931,8 @@
       <c r="E49" s="70">
         <v>60</v>
       </c>
-      <c r="F49" s="80"/>
-      <c r="G49" s="82"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="90"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2853,10 +2975,10 @@
       <c r="E51" s="70">
         <v>60</v>
       </c>
-      <c r="F51" s="79">
+      <c r="F51" s="87">
         <v>63</v>
       </c>
-      <c r="G51" s="81" t="s">
+      <c r="G51" s="89" t="s">
         <v>223</v>
       </c>
       <c r="H51" s="40"/>
@@ -2877,8 +2999,8 @@
       <c r="E52" s="70">
         <v>60</v>
       </c>
-      <c r="F52" s="80"/>
-      <c r="G52" s="82"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="90"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2921,10 +3043,10 @@
       <c r="E54" s="67">
         <v>62</v>
       </c>
-      <c r="F54" s="87">
+      <c r="F54" s="85">
         <v>65</v>
       </c>
-      <c r="G54" s="87" t="s">
+      <c r="G54" s="85" t="s">
         <v>246</v>
       </c>
       <c r="H54" s="1"/>
@@ -2945,8 +3067,8 @@
       <c r="E55" s="67">
         <v>62</v>
       </c>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3009,13 +3131,13 @@
       </c>
     </row>
     <row r="59" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="116" t="s">
+      <c r="B59" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="116" t="s">
+      <c r="C59" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="116">
+      <c r="D59" s="81">
         <v>19</v>
       </c>
       <c r="E59" s="48">
@@ -3033,13 +3155,13 @@
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="116" t="s">
+      <c r="C60" s="81" t="s">
         <v>259</v>
       </c>
-      <c r="D60" s="116">
+      <c r="D60" s="81">
         <v>19</v>
       </c>
       <c r="E60" s="48">
@@ -3128,7 +3250,7 @@
       <c r="F64" s="83">
         <v>63</v>
       </c>
-      <c r="G64" s="85" t="s">
+      <c r="G64" s="91" t="s">
         <v>229</v>
       </c>
       <c r="H64" s="40"/>
@@ -3136,7 +3258,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>228</v>
       </c>
@@ -3150,13 +3272,13 @@
         <v>62</v>
       </c>
       <c r="F65" s="84"/>
-      <c r="G65" s="86"/>
+      <c r="G65" s="92"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -3168,7 +3290,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -3180,7 +3302,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
@@ -3192,7 +3314,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>230</v>
       </c>
@@ -3224,7 +3346,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="69" t="s">
         <v>231</v>
       </c>
@@ -3237,10 +3359,10 @@
       <c r="E70" s="70">
         <v>60</v>
       </c>
-      <c r="F70" s="89">
+      <c r="F70" s="93">
         <v>63</v>
       </c>
-      <c r="G70" s="81" t="s">
+      <c r="G70" s="89" t="s">
         <v>249</v>
       </c>
       <c r="H70" s="40"/>
@@ -3248,7 +3370,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="69" t="s">
         <v>232</v>
       </c>
@@ -3261,14 +3383,14 @@
       <c r="E71" s="70">
         <v>60</v>
       </c>
-      <c r="F71" s="90"/>
-      <c r="G71" s="82"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="90"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="69" t="s">
         <v>233</v>
       </c>
@@ -3284,7 +3406,7 @@
       <c r="F72" s="77">
         <v>63</v>
       </c>
-      <c r="G72" s="81" t="s">
+      <c r="G72" s="89" t="s">
         <v>250</v>
       </c>
       <c r="H72" s="40"/>
@@ -3292,7 +3414,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="69" t="s">
         <v>234</v>
       </c>
@@ -3300,13 +3422,13 @@
       <c r="D73" s="69"/>
       <c r="E73" s="70"/>
       <c r="F73" s="78"/>
-      <c r="G73" s="82"/>
+      <c r="G73" s="90"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>247</v>
       </c>
@@ -3319,10 +3441,10 @@
       <c r="E74" s="48">
         <v>61</v>
       </c>
-      <c r="F74" s="87">
+      <c r="F74" s="85">
         <v>64</v>
       </c>
-      <c r="G74" s="85" t="s">
+      <c r="G74" s="91" t="s">
         <v>251</v>
       </c>
       <c r="H74" s="40"/>
@@ -3330,7 +3452,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>248</v>
       </c>
@@ -3343,273 +3465,406 @@
       <c r="E75" s="48">
         <v>62</v>
       </c>
-      <c r="F75" s="88"/>
-      <c r="G75" s="86"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="92"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
+      <c r="F76" s="36"/>
       <c r="G76" s="34"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
+      <c r="F77" s="36"/>
       <c r="G77" s="34"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
-      <c r="B79" s="115" t="s">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J78" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K78" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D79" s="1">
+        <v>20</v>
+      </c>
+      <c r="E79" s="48">
+        <v>63</v>
+      </c>
+      <c r="F79" s="83">
+        <v>63</v>
+      </c>
+      <c r="G79" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="H79" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I79" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J79" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="K79" s="82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80" s="1">
+        <v>21</v>
+      </c>
+      <c r="E80" s="48">
+        <v>60</v>
+      </c>
+      <c r="F80" s="84"/>
+      <c r="G80" s="86"/>
+      <c r="H80" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="I80" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J80" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="K80" s="82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D81" s="1">
+        <v>20</v>
+      </c>
+      <c r="E81" s="48">
+        <v>60</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="H81" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="I81" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J81" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="K81" s="82" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="82"/>
+      <c r="I82" s="82"/>
+      <c r="J82" s="82"/>
+      <c r="K82" s="82"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G85" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H85" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="I85" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="J85" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="K85" s="122" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D86" s="1">
+        <v>19</v>
+      </c>
+      <c r="E86" s="48">
+        <v>62</v>
+      </c>
+      <c r="F86" s="83">
+        <v>64</v>
+      </c>
+      <c r="G86" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="H86" s="37">
+        <v>1</v>
+      </c>
+      <c r="I86" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J86" s="82" t="s">
+        <v>288</v>
+      </c>
+      <c r="K86" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D87" s="1">
+        <v>20</v>
+      </c>
+      <c r="E87" s="48">
+        <v>61</v>
+      </c>
+      <c r="F87" s="84"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="I87" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J87" s="82" t="s">
+        <v>291</v>
+      </c>
+      <c r="K87" s="84"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="1">
+        <v>18</v>
+      </c>
+      <c r="E88" s="48">
+        <v>62</v>
+      </c>
+      <c r="F88" s="83">
+        <v>64</v>
+      </c>
+      <c r="G88" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="H88" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="I88" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J88" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D89" s="1">
+        <v>20</v>
+      </c>
+      <c r="E89" s="48">
+        <v>61</v>
+      </c>
+      <c r="F89" s="84"/>
+      <c r="G89" s="86"/>
+      <c r="H89" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="I89" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J89" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="K89" s="84"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="54"/>
+      <c r="B93" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="115"/>
-      <c r="K79" s="115"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="21" t="s">
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="80"/>
+      <c r="H93" s="80"/>
+      <c r="I93" s="80"/>
+      <c r="J93" s="80"/>
+      <c r="K93" s="80"/>
+      <c r="L93" s="54"/>
+      <c r="M93" s="54"/>
+      <c r="N93" s="54"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F82" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G82" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D83" s="1">
-        <v>36</v>
-      </c>
-      <c r="E83" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="F83" s="39"/>
-      <c r="G83" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="H83" s="94" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" s="1">
-        <v>36</v>
-      </c>
-      <c r="E84" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="F84" s="39"/>
-      <c r="G84" s="94"/>
-      <c r="H84" s="94"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H87" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="I87" s="93"/>
-      <c r="J87" s="93"/>
-      <c r="K87" s="93"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E88" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F88" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G88" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H88" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I88" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J88" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="K88" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="C89" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="D89" s="69">
-        <v>32</v>
-      </c>
-      <c r="E89" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="F89" s="39"/>
-      <c r="G89" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="H89" s="40"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="69" t="s">
-        <v>199</v>
-      </c>
-      <c r="C90" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" s="69">
-        <v>32</v>
-      </c>
-      <c r="E90" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="F90" s="39"/>
-      <c r="G90" s="84"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="D91" s="69">
-        <v>64</v>
-      </c>
-      <c r="E91" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="F91" s="39"/>
-      <c r="G91" s="83" t="s">
-        <v>183</v>
-      </c>
-      <c r="H91" s="40"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="92" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="69" t="s">
-        <v>201</v>
-      </c>
-      <c r="C92" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="D92" s="69">
-        <v>64</v>
-      </c>
-      <c r="E92" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="F92" s="39"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="92"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L93" s="91"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L94" s="91"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H95" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="I95" s="93"/>
-      <c r="J95" s="93"/>
-      <c r="K95" s="93"/>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="21" t="s">
-        <v>258</v>
       </c>
       <c r="C96" s="22" t="s">
         <v>154</v>
@@ -3623,254 +3878,459 @@
       <c r="F96" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="G96" s="38" t="s">
+      <c r="G96" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H96" s="24" t="s">
+      <c r="H96" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="1">
+        <v>36</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F97" s="39"/>
+      <c r="G97" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="H97" s="100" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" s="1">
+        <v>36</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F98" s="39"/>
+      <c r="G98" s="100"/>
+      <c r="H98" s="100"/>
+    </row>
+    <row r="101" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="I101" s="98"/>
+      <c r="J101" s="98"/>
+      <c r="K101" s="99"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E102" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G102" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H102" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I96" s="25" t="s">
+      <c r="I102" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J96" s="26" t="s">
+      <c r="J102" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="K96" s="24" t="s">
+      <c r="K102" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="C97" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" s="69">
-        <v>37</v>
-      </c>
-      <c r="E97" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="H97" s="40"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="C98" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="D98" s="69">
-        <v>37</v>
-      </c>
-      <c r="E98" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="F98" s="84"/>
-      <c r="G98" s="84"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="C99" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="D99" s="69">
-        <v>41</v>
-      </c>
-      <c r="E99" s="70">
-        <v>80.16</v>
-      </c>
-      <c r="F99" s="83"/>
-      <c r="G99" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="91" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="69" t="s">
-        <v>205</v>
-      </c>
-      <c r="C100" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="D100" s="69">
-        <v>41</v>
-      </c>
-      <c r="E100" s="70">
-        <v>80.16</v>
-      </c>
-      <c r="F100" s="84"/>
-      <c r="G100" s="84"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="91"/>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="69" t="s">
-        <v>206</v>
-      </c>
-      <c r="C101" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="D101" s="69">
-        <v>41</v>
-      </c>
-      <c r="E101" s="70">
-        <v>80.16</v>
-      </c>
-      <c r="F101" s="83"/>
-      <c r="G101" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="H101" s="40"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="91" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="C102" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="D102" s="69">
-        <v>41</v>
-      </c>
-      <c r="E102" s="70">
-        <v>80.16</v>
-      </c>
-      <c r="F102" s="84"/>
-      <c r="G102" s="84"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="91"/>
-    </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L103" s="91" t="s">
-        <v>195</v>
-      </c>
+      <c r="B103" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D103" s="69">
+        <v>32</v>
+      </c>
+      <c r="E103" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" s="39"/>
+      <c r="G103" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="H103" s="40"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L104" s="91"/>
+      <c r="B104" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D104" s="69">
+        <v>32</v>
+      </c>
+      <c r="E104" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="F104" s="39"/>
+      <c r="G104" s="84"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E105" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F105" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G105" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I105" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J105" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="K105" s="24" t="s">
-        <v>127</v>
+      <c r="B105" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D105" s="69">
+        <v>64</v>
+      </c>
+      <c r="E105" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="F105" s="39"/>
+      <c r="G105" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="H105" s="40"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="96" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="48"/>
+      <c r="B106" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D106" s="69">
+        <v>64</v>
+      </c>
+      <c r="E106" s="70" t="s">
+        <v>182</v>
+      </c>
       <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="40"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
+      <c r="L106" s="96"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
+      <c r="L107" s="95"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L108" s="95"/>
+    </row>
+    <row r="109" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="I109" s="98"/>
+      <c r="J109" s="98"/>
+      <c r="K109" s="99"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G110" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I110" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J110" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K110" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C111" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="D111" s="69">
+        <v>37</v>
+      </c>
+      <c r="E111" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="F111" s="83"/>
+      <c r="G111" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="H111" s="40"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D112" s="69">
+        <v>37</v>
+      </c>
+      <c r="E112" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="F112" s="84"/>
+      <c r="G112" s="84"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="C113" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" s="69">
+        <v>41</v>
+      </c>
+      <c r="E113" s="70">
+        <v>80.16</v>
+      </c>
+      <c r="F113" s="83"/>
+      <c r="G113" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="D114" s="69">
+        <v>41</v>
+      </c>
+      <c r="E114" s="70">
+        <v>80.16</v>
+      </c>
+      <c r="F114" s="84"/>
+      <c r="G114" s="84"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="95"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" s="69">
+        <v>41</v>
+      </c>
+      <c r="E115" s="70">
+        <v>80.16</v>
+      </c>
+      <c r="F115" s="83"/>
+      <c r="G115" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="H115" s="40"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D116" s="69">
+        <v>41</v>
+      </c>
+      <c r="E116" s="70">
+        <v>80.16</v>
+      </c>
+      <c r="F116" s="84"/>
+      <c r="G116" s="84"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="95"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L117" s="95" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L118" s="95"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E119" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G119" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I119" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J119" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K119" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="80">
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="K88:K89"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="K28:K29"/>
@@ -3915,27 +4375,27 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="H101:K101"/>
     <mergeCell ref="G97:G98"/>
-    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="L113:L114"/>
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="F111:F112"/>
     <mergeCell ref="G74:G75"/>
     <mergeCell ref="F74:F75"/>
     <mergeCell ref="F64:F65"/>
@@ -3943,6 +4403,12 @@
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="G70:G71"/>
     <mergeCell ref="G72:G73"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3954,7 +4420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3967,11 +4433,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3993,7 +4459,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="120" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -4004,7 +4470,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="114"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
@@ -4013,7 +4479,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="116" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -4027,7 +4493,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="109"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -4048,7 +4514,7 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="118" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="42" t="s">
@@ -4059,7 +4525,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="112"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
@@ -4068,7 +4534,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="112"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
@@ -4080,7 +4546,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="112"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
@@ -4092,7 +4558,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="116" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4104,7 +4570,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="109"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
@@ -4138,7 +4604,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="85"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
@@ -4148,7 +4614,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
@@ -4192,7 +4658,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="116" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -4203,7 +4669,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="109"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
@@ -4212,7 +4678,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="109"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
@@ -4221,7 +4687,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="109"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="17" t="s">
         <v>41</v>
       </c>
@@ -4230,7 +4696,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="100" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -4241,7 +4707,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="94"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
@@ -4250,7 +4716,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="113" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -4261,7 +4727,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="107"/>
+      <c r="B39" s="114"/>
       <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
@@ -4270,7 +4736,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="108"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="17" t="s">
         <v>51</v>
       </c>

--- a/Bases de datos/primers diseño clonaje.xlsx
+++ b/Bases de datos/primers diseño clonaje.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D916731D-A940-4578-A880-B78F9F6D40D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB61DD1-56F6-4011-9DC1-3483FF6201BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1367,130 +1367,129 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,28 +1511,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1819,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:C89"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,12 +1849,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -1891,10 +1901,10 @@
       <c r="E4" s="47">
         <v>64</v>
       </c>
-      <c r="F4" s="106">
+      <c r="F4" s="91">
         <v>67</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="95" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="19">
@@ -1906,7 +1916,7 @@
       <c r="J4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="84">
         <v>2</v>
       </c>
       <c r="M4" s="52" t="s">
@@ -1926,8 +1936,8 @@
       <c r="E5" s="47">
         <v>64</v>
       </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="101"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="19" t="s">
         <v>111</v>
       </c>
@@ -1937,7 +1947,7 @@
       <c r="J5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="86"/>
+      <c r="K5" s="85"/>
       <c r="M5" s="51" t="s">
         <v>155</v>
       </c>
@@ -1955,10 +1965,10 @@
       <c r="E6" s="47">
         <v>61</v>
       </c>
-      <c r="F6" s="106">
+      <c r="F6" s="91">
         <v>64</v>
       </c>
-      <c r="G6" s="101"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="19">
         <v>1</v>
       </c>
@@ -1968,7 +1978,7 @@
       <c r="J6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="84">
         <v>1</v>
       </c>
       <c r="M6" t="s">
@@ -1988,8 +1998,8 @@
       <c r="E7" s="47">
         <v>62</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="101"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="19" t="s">
         <v>111</v>
       </c>
@@ -1999,15 +2009,15 @@
       <c r="J7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="86"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="9" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="110" t="s">
+      <c r="H9" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
@@ -2054,10 +2064,10 @@
       <c r="E11" s="48">
         <v>61</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="80">
         <v>64</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="100" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="19" t="s">
@@ -2069,7 +2079,7 @@
       <c r="J11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="85"/>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="57" t="s">
@@ -2084,8 +2094,8 @@
       <c r="E12" s="48">
         <v>61</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="104"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="100"/>
       <c r="H12" s="19">
         <v>1</v>
       </c>
@@ -2095,7 +2105,7 @@
       <c r="J12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="86"/>
+      <c r="K12" s="85"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="60" t="s">
@@ -2110,10 +2120,10 @@
       <c r="E13" s="61">
         <v>58</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F13" s="93">
         <v>61</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="101" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="62">
@@ -2125,7 +2135,7 @@
       <c r="J13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="111"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
@@ -2140,8 +2150,8 @@
       <c r="E14" s="61">
         <v>60</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="105"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="62" t="s">
         <v>111</v>
       </c>
@@ -2151,7 +2161,7 @@
       <c r="J14" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="112"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="63" t="s">
@@ -2184,12 +2194,12 @@
       <c r="K15" s="35"/>
     </row>
     <row r="17" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
@@ -2245,10 +2255,10 @@
       <c r="E19" s="48">
         <v>61</v>
       </c>
-      <c r="F19" s="83">
+      <c r="F19" s="80">
         <v>63</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="95" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="19">
@@ -2260,7 +2270,7 @@
       <c r="J19" s="19">
         <v>3</v>
       </c>
-      <c r="K19" s="85">
+      <c r="K19" s="84">
         <v>2</v>
       </c>
       <c r="M19" t="s">
@@ -2286,8 +2296,8 @@
       <c r="E20" s="48">
         <v>60</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="101"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="19" t="s">
         <v>111</v>
       </c>
@@ -2297,7 +2307,7 @@
       <c r="J20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="86"/>
+      <c r="K20" s="85"/>
       <c r="M20" s="53" t="s">
         <v>161</v>
       </c>
@@ -2321,10 +2331,10 @@
       <c r="E21" s="48">
         <v>61</v>
       </c>
-      <c r="F21" s="83">
+      <c r="F21" s="80">
         <v>64</v>
       </c>
-      <c r="G21" s="101" t="s">
+      <c r="G21" s="95" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="19" t="s">
@@ -2336,7 +2346,7 @@
       <c r="J21" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="85">
+      <c r="K21" s="84">
         <v>2</v>
       </c>
     </row>
@@ -2353,8 +2363,8 @@
       <c r="E22" s="48">
         <v>62</v>
       </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="101"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="95"/>
       <c r="H22" s="19" t="s">
         <v>111</v>
       </c>
@@ -2364,7 +2374,7 @@
       <c r="J22" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="86"/>
+      <c r="K22" s="85"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -2379,10 +2389,10 @@
       <c r="E23" s="48">
         <v>60</v>
       </c>
-      <c r="F23" s="83">
+      <c r="F23" s="80">
         <v>63</v>
       </c>
-      <c r="G23" s="101" t="s">
+      <c r="G23" s="95" t="s">
         <v>108</v>
       </c>
       <c r="H23" s="19" t="s">
@@ -2394,7 +2404,7 @@
       <c r="J23" s="19">
         <v>1</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="84" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2411,8 +2421,8 @@
       <c r="E24" s="48">
         <v>62</v>
       </c>
-      <c r="F24" s="84"/>
-      <c r="G24" s="101"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="95"/>
       <c r="H24" s="19" t="s">
         <v>111</v>
       </c>
@@ -2422,7 +2432,7 @@
       <c r="J24" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="86"/>
+      <c r="K24" s="85"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
@@ -2433,12 +2443,12 @@
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="110" t="s">
+      <c r="H26" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
@@ -2485,10 +2495,10 @@
       <c r="E28" s="43">
         <v>60</v>
       </c>
-      <c r="F28" s="83">
+      <c r="F28" s="80">
         <v>63</v>
       </c>
-      <c r="G28" s="102" t="s">
+      <c r="G28" s="96" t="s">
         <v>156</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -2500,7 +2510,7 @@
       <c r="J28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="83" t="s">
+      <c r="K28" s="80" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2517,8 +2527,8 @@
       <c r="E29" s="43">
         <v>63</v>
       </c>
-      <c r="F29" s="84"/>
-      <c r="G29" s="103"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="97"/>
       <c r="H29" s="19" t="s">
         <v>111</v>
       </c>
@@ -2528,7 +2538,7 @@
       <c r="J29" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="84"/>
+      <c r="K29" s="81"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="s">
@@ -2539,10 +2549,10 @@
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="59"/>
-      <c r="F30" s="120">
+      <c r="F30" s="82">
         <v>63</v>
       </c>
-      <c r="G30" s="125" t="s">
+      <c r="G30" s="98" t="s">
         <v>157</v>
       </c>
       <c r="H30" s="59" t="s">
@@ -2554,7 +2564,7 @@
       <c r="J30" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="K30" s="120">
+      <c r="K30" s="82">
         <v>2</v>
       </c>
     </row>
@@ -2571,8 +2581,8 @@
       <c r="E31" s="59">
         <v>61</v>
       </c>
-      <c r="F31" s="126"/>
-      <c r="G31" s="127"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="99"/>
       <c r="H31" s="59">
         <v>1</v>
       </c>
@@ -2582,7 +2592,7 @@
       <c r="J31" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="126"/>
+      <c r="K31" s="83"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
@@ -2605,12 +2615,12 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="110" t="s">
+      <c r="H35" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
     </row>
     <row r="36" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
@@ -2657,10 +2667,10 @@
       <c r="E37" s="43">
         <v>61</v>
       </c>
-      <c r="F37" s="83">
+      <c r="F37" s="80">
         <v>64</v>
       </c>
-      <c r="G37" s="85" t="s">
+      <c r="G37" s="84" t="s">
         <v>149</v>
       </c>
       <c r="H37" s="41" t="s">
@@ -2672,7 +2682,7 @@
       <c r="J37" s="41">
         <v>2</v>
       </c>
-      <c r="K37" s="83">
+      <c r="K37" s="80">
         <v>3</v>
       </c>
     </row>
@@ -2689,8 +2699,8 @@
       <c r="E38" s="44">
         <v>61</v>
       </c>
-      <c r="F38" s="84"/>
-      <c r="G38" s="86"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="85"/>
       <c r="H38" s="41" t="s">
         <v>111</v>
       </c>
@@ -2700,7 +2710,7 @@
       <c r="J38" s="41">
         <v>2</v>
       </c>
-      <c r="K38" s="84"/>
+      <c r="K38" s="81"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2715,10 +2725,10 @@
       <c r="E39" s="48">
         <v>60</v>
       </c>
-      <c r="F39" s="83">
+      <c r="F39" s="80">
         <v>63</v>
       </c>
-      <c r="G39" s="91" t="s">
+      <c r="G39" s="87" t="s">
         <v>151</v>
       </c>
       <c r="H39" s="41" t="s">
@@ -2730,7 +2740,7 @@
       <c r="J39" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="83">
+      <c r="K39" s="80">
         <v>2</v>
       </c>
     </row>
@@ -2747,8 +2757,8 @@
       <c r="E40" s="48">
         <v>62</v>
       </c>
-      <c r="F40" s="84"/>
-      <c r="G40" s="92"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="88"/>
       <c r="H40" s="45" t="s">
         <v>111</v>
       </c>
@@ -2758,7 +2768,7 @@
       <c r="J40" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="84"/>
+      <c r="K40" s="81"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2773,10 +2783,10 @@
       <c r="E41" s="50">
         <v>62</v>
       </c>
-      <c r="F41" s="83">
+      <c r="F41" s="80">
         <v>64</v>
       </c>
-      <c r="G41" s="85" t="s">
+      <c r="G41" s="84" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="45">
@@ -2788,7 +2798,7 @@
       <c r="J41" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="83">
+      <c r="K41" s="80">
         <v>3</v>
       </c>
     </row>
@@ -2805,8 +2815,8 @@
       <c r="E42" s="43">
         <v>61</v>
       </c>
-      <c r="F42" s="84"/>
-      <c r="G42" s="86"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="85"/>
       <c r="H42" s="45" t="s">
         <v>111</v>
       </c>
@@ -2816,7 +2826,7 @@
       <c r="J42" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="84"/>
+      <c r="K42" s="81"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
@@ -2851,22 +2861,22 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="120" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="69">
+      <c r="D46" s="120">
         <v>20</v>
       </c>
-      <c r="E46" s="70">
+      <c r="E46" s="121">
         <v>62</v>
       </c>
-      <c r="F46" s="87">
+      <c r="F46" s="122">
         <v>64</v>
       </c>
-      <c r="G46" s="87" t="s">
+      <c r="G46" s="122" t="s">
         <v>209</v>
       </c>
       <c r="H46" s="40"/>
@@ -2875,42 +2885,42 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="69">
+      <c r="D47" s="120">
         <v>20</v>
       </c>
-      <c r="E47" s="70">
+      <c r="E47" s="121">
         <v>61</v>
       </c>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="D48" s="69">
+      <c r="D48" s="120">
         <v>20</v>
       </c>
-      <c r="E48" s="70">
+      <c r="E48" s="121">
         <v>61</v>
       </c>
-      <c r="F48" s="87">
+      <c r="F48" s="122">
         <v>63</v>
       </c>
-      <c r="G48" s="89" t="s">
+      <c r="G48" s="124" t="s">
         <v>218</v>
       </c>
       <c r="H48" s="40"/>
@@ -2919,42 +2929,42 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="125" t="s">
         <v>217</v>
       </c>
-      <c r="D49" s="69">
+      <c r="D49" s="120">
         <v>20</v>
       </c>
-      <c r="E49" s="70">
+      <c r="E49" s="121">
         <v>60</v>
       </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="90"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="126"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="69" t="s">
+      <c r="C50" s="120" t="s">
         <v>236</v>
       </c>
-      <c r="D50" s="69">
+      <c r="D50" s="120">
         <v>20</v>
       </c>
-      <c r="E50" s="70">
+      <c r="E50" s="121">
         <v>62</v>
       </c>
-      <c r="F50" s="72">
+      <c r="F50" s="127">
         <v>64</v>
       </c>
-      <c r="G50" s="73" t="s">
+      <c r="G50" s="128" t="s">
         <v>222</v>
       </c>
       <c r="H50" s="1"/>
@@ -2963,22 +2973,22 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="120" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="D51" s="69">
+      <c r="D51" s="120">
         <v>20</v>
       </c>
-      <c r="E51" s="70">
+      <c r="E51" s="121">
         <v>60</v>
       </c>
-      <c r="F51" s="87">
+      <c r="F51" s="122">
         <v>63</v>
       </c>
-      <c r="G51" s="89" t="s">
+      <c r="G51" s="124" t="s">
         <v>223</v>
       </c>
       <c r="H51" s="40"/>
@@ -2987,42 +2997,42 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="69">
+      <c r="D52" s="120">
         <v>21</v>
       </c>
-      <c r="E52" s="70">
+      <c r="E52" s="121">
         <v>60</v>
       </c>
-      <c r="F52" s="88"/>
-      <c r="G52" s="90"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="126"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="D53" s="69">
+      <c r="D53" s="120">
         <v>20</v>
       </c>
-      <c r="E53" s="70">
+      <c r="E53" s="121">
         <v>60</v>
       </c>
-      <c r="F53" s="75">
+      <c r="F53" s="130">
         <v>63</v>
       </c>
-      <c r="G53" s="76" t="s">
+      <c r="G53" s="131" t="s">
         <v>224</v>
       </c>
       <c r="H53" s="1"/>
@@ -3043,10 +3053,10 @@
       <c r="E54" s="67">
         <v>62</v>
       </c>
-      <c r="F54" s="85">
+      <c r="F54" s="84">
         <v>65</v>
       </c>
-      <c r="G54" s="85" t="s">
+      <c r="G54" s="84" t="s">
         <v>246</v>
       </c>
       <c r="H54" s="1"/>
@@ -3067,8 +3077,8 @@
       <c r="E55" s="67">
         <v>62</v>
       </c>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3131,13 +3141,13 @@
       </c>
     </row>
     <row r="59" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="81" t="s">
+      <c r="C59" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="81">
+      <c r="D59" s="75">
         <v>19</v>
       </c>
       <c r="E59" s="48">
@@ -3155,13 +3165,13 @@
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="81" t="s">
+      <c r="C60" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="D60" s="81">
+      <c r="D60" s="75">
         <v>19</v>
       </c>
       <c r="E60" s="48">
@@ -3247,10 +3257,10 @@
       <c r="E64" s="48">
         <v>60</v>
       </c>
-      <c r="F64" s="83">
+      <c r="F64" s="80">
         <v>63</v>
       </c>
-      <c r="G64" s="91" t="s">
+      <c r="G64" s="87" t="s">
         <v>229</v>
       </c>
       <c r="H64" s="40"/>
@@ -3271,8 +3281,8 @@
       <c r="E65" s="48">
         <v>62</v>
       </c>
-      <c r="F65" s="84"/>
-      <c r="G65" s="92"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="88"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3359,10 +3369,10 @@
       <c r="E70" s="70">
         <v>60</v>
       </c>
-      <c r="F70" s="93">
+      <c r="F70" s="110">
         <v>63</v>
       </c>
-      <c r="G70" s="89" t="s">
+      <c r="G70" s="108" t="s">
         <v>249</v>
       </c>
       <c r="H70" s="40"/>
@@ -3383,8 +3393,8 @@
       <c r="E71" s="70">
         <v>60</v>
       </c>
-      <c r="F71" s="94"/>
-      <c r="G71" s="90"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="109"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3403,10 +3413,10 @@
       <c r="E72" s="70">
         <v>62</v>
       </c>
-      <c r="F72" s="77">
+      <c r="F72" s="71">
         <v>63</v>
       </c>
-      <c r="G72" s="89" t="s">
+      <c r="G72" s="108" t="s">
         <v>250</v>
       </c>
       <c r="H72" s="40"/>
@@ -3421,8 +3431,8 @@
       <c r="C73" s="69"/>
       <c r="D73" s="69"/>
       <c r="E73" s="70"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="90"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="109"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3441,10 +3451,10 @@
       <c r="E74" s="48">
         <v>61</v>
       </c>
-      <c r="F74" s="85">
+      <c r="F74" s="84">
         <v>64</v>
       </c>
-      <c r="G74" s="91" t="s">
+      <c r="G74" s="87" t="s">
         <v>251</v>
       </c>
       <c r="H74" s="40"/>
@@ -3465,8 +3475,8 @@
       <c r="E75" s="48">
         <v>62</v>
       </c>
-      <c r="F75" s="86"/>
-      <c r="G75" s="92"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="88"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3541,22 +3551,22 @@
       <c r="E79" s="48">
         <v>63</v>
       </c>
-      <c r="F79" s="83">
+      <c r="F79" s="80">
         <v>63</v>
       </c>
-      <c r="G79" s="85" t="s">
+      <c r="G79" s="84" t="s">
         <v>273</v>
       </c>
       <c r="H79" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="I79" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="J79" s="82" t="s">
+      <c r="I79" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="J79" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="K79" s="82" t="s">
+      <c r="K79" s="76" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3573,18 +3583,18 @@
       <c r="E80" s="48">
         <v>60</v>
       </c>
-      <c r="F80" s="84"/>
-      <c r="G80" s="86"/>
-      <c r="H80" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="I80" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="J80" s="82" t="s">
+      <c r="F80" s="81"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="I80" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="J80" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="K80" s="82" t="s">
+      <c r="K80" s="76" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3604,19 +3614,19 @@
       <c r="F81" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="G81" s="79" t="s">
+      <c r="G81" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="H81" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="I81" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="J81" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="K81" s="82" t="s">
+      <c r="H81" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="I81" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="J81" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="K81" s="76" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3631,10 +3641,10 @@
       <c r="E82" s="48"/>
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
-      <c r="H82" s="82"/>
-      <c r="I82" s="82"/>
-      <c r="J82" s="82"/>
-      <c r="K82" s="82"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="76"/>
+      <c r="K82" s="76"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
@@ -3679,16 +3689,16 @@
       <c r="G85" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H85" s="122" t="s">
+      <c r="H85" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="I85" s="123" t="s">
+      <c r="I85" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="J85" s="124" t="s">
+      <c r="J85" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="K85" s="122" t="s">
+      <c r="K85" s="77" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3705,22 +3715,22 @@
       <c r="E86" s="48">
         <v>62</v>
       </c>
-      <c r="F86" s="83">
+      <c r="F86" s="80">
         <v>64</v>
       </c>
-      <c r="G86" s="85" t="s">
+      <c r="G86" s="84" t="s">
         <v>286</v>
       </c>
       <c r="H86" s="37">
         <v>1</v>
       </c>
-      <c r="I86" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="J86" s="82" t="s">
+      <c r="I86" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="J86" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="K86" s="83">
+      <c r="K86" s="80">
         <v>3</v>
       </c>
     </row>
@@ -3737,18 +3747,18 @@
       <c r="E87" s="48">
         <v>61</v>
       </c>
-      <c r="F87" s="84"/>
-      <c r="G87" s="86"/>
-      <c r="H87" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="I87" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="J87" s="82" t="s">
+      <c r="F87" s="81"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="I87" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="J87" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="K87" s="84"/>
+      <c r="K87" s="81"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
@@ -3763,22 +3773,22 @@
       <c r="E88" s="48">
         <v>62</v>
       </c>
-      <c r="F88" s="83">
+      <c r="F88" s="80">
         <v>64</v>
       </c>
-      <c r="G88" s="85" t="s">
+      <c r="G88" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="H88" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="I88" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="J88" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="K88" s="83">
+      <c r="H88" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="I88" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="J88" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88" s="80">
         <v>2</v>
       </c>
     </row>
@@ -3795,18 +3805,18 @@
       <c r="E89" s="48">
         <v>61</v>
       </c>
-      <c r="F89" s="84"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="I89" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="J89" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="K89" s="84"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="I89" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="J89" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="K89" s="81"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
@@ -3846,18 +3856,18 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
-      <c r="B93" s="80" t="s">
+      <c r="B93" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="80"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
-      <c r="H93" s="80"/>
-      <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
-      <c r="K93" s="80"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="74"/>
+      <c r="H93" s="74"/>
+      <c r="I93" s="74"/>
+      <c r="J93" s="74"/>
+      <c r="K93" s="74"/>
       <c r="L93" s="54"/>
       <c r="M93" s="54"/>
       <c r="N93" s="54"/>
@@ -3899,10 +3909,10 @@
         <v>169</v>
       </c>
       <c r="F97" s="39"/>
-      <c r="G97" s="100" t="s">
+      <c r="G97" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="H97" s="100" t="s">
+      <c r="H97" s="105" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3920,16 +3930,16 @@
         <v>170</v>
       </c>
       <c r="F98" s="39"/>
-      <c r="G98" s="100"/>
-      <c r="H98" s="100"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="105"/>
     </row>
     <row r="101" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H101" s="97" t="s">
+      <c r="H101" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="I101" s="98"/>
-      <c r="J101" s="98"/>
-      <c r="K101" s="99"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="103"/>
+      <c r="K101" s="104"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="21" t="s">
@@ -3977,7 +3987,7 @@
         <v>176</v>
       </c>
       <c r="F103" s="39"/>
-      <c r="G103" s="83" t="s">
+      <c r="G103" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H103" s="40"/>
@@ -3999,7 +4009,7 @@
         <v>176</v>
       </c>
       <c r="F104" s="39"/>
-      <c r="G104" s="84"/>
+      <c r="G104" s="81"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -4019,14 +4029,14 @@
         <v>181</v>
       </c>
       <c r="F105" s="39"/>
-      <c r="G105" s="83" t="s">
+      <c r="G105" s="80" t="s">
         <v>183</v>
       </c>
       <c r="H105" s="40"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-      <c r="L105" s="96" t="s">
+      <c r="L105" s="107" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4044,26 +4054,26 @@
         <v>182</v>
       </c>
       <c r="F106" s="39"/>
-      <c r="G106" s="84"/>
+      <c r="G106" s="81"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-      <c r="L106" s="96"/>
+      <c r="L106" s="107"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L107" s="95"/>
+      <c r="L107" s="106"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L108" s="95"/>
+      <c r="L108" s="106"/>
     </row>
     <row r="109" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H109" s="97" t="s">
+      <c r="H109" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="I109" s="98"/>
-      <c r="J109" s="98"/>
-      <c r="K109" s="99"/>
+      <c r="I109" s="103"/>
+      <c r="J109" s="103"/>
+      <c r="K109" s="104"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
@@ -4110,8 +4120,8 @@
       <c r="E111" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="F111" s="83"/>
-      <c r="G111" s="83" t="s">
+      <c r="F111" s="80"/>
+      <c r="G111" s="80" t="s">
         <v>186</v>
       </c>
       <c r="H111" s="40"/>
@@ -4132,8 +4142,8 @@
       <c r="E112" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="F112" s="84"/>
-      <c r="G112" s="84"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="81"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -4152,15 +4162,15 @@
       <c r="E113" s="70">
         <v>80.16</v>
       </c>
-      <c r="F113" s="83"/>
-      <c r="G113" s="83" t="s">
+      <c r="F113" s="80"/>
+      <c r="G113" s="80" t="s">
         <v>186</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-      <c r="L113" s="95" t="s">
+      <c r="L113" s="106" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4177,13 +4187,13 @@
       <c r="E114" s="70">
         <v>80.16</v>
       </c>
-      <c r="F114" s="84"/>
-      <c r="G114" s="84"/>
+      <c r="F114" s="81"/>
+      <c r="G114" s="81"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
-      <c r="L114" s="95"/>
+      <c r="L114" s="106"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" s="69" t="s">
@@ -4198,15 +4208,15 @@
       <c r="E115" s="70">
         <v>80.16</v>
       </c>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83" t="s">
+      <c r="F115" s="80"/>
+      <c r="G115" s="80" t="s">
         <v>186</v>
       </c>
       <c r="H115" s="40"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
-      <c r="L115" s="95" t="s">
+      <c r="L115" s="106" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4223,21 +4233,21 @@
       <c r="E116" s="70">
         <v>80.16</v>
       </c>
-      <c r="F116" s="84"/>
-      <c r="G116" s="84"/>
+      <c r="F116" s="81"/>
+      <c r="G116" s="81"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
-      <c r="L116" s="95"/>
+      <c r="L116" s="106"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L117" s="95" t="s">
+      <c r="L117" s="106" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L118" s="95"/>
+      <c r="L118" s="106"/>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119" s="21" t="s">
@@ -4329,6 +4339,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="K86:K87"/>
     <mergeCell ref="K88:K89"/>
     <mergeCell ref="F28:F29"/>
@@ -4345,70 +4419,6 @@
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4433,11 +4443,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -4459,7 +4469,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="82" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -4470,7 +4480,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="121"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
@@ -4479,7 +4489,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="115" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -4493,7 +4503,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="116"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -4514,7 +4524,7 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="117" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="42" t="s">
@@ -4525,7 +4535,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="119"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
@@ -4534,7 +4544,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="119"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
@@ -4546,7 +4556,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="119"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
@@ -4558,7 +4568,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="115" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4570,7 +4580,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="116"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
@@ -4604,7 +4614,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
@@ -4614,7 +4624,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="92"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
@@ -4658,7 +4668,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="115" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -4669,7 +4679,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="116"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
@@ -4678,7 +4688,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="116"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
@@ -4687,7 +4697,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="116"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="17" t="s">
         <v>41</v>
       </c>
@@ -4696,7 +4706,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="105" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -4707,7 +4717,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="100"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
@@ -4716,7 +4726,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="112" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -4727,7 +4737,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="114"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
@@ -4736,7 +4746,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="115"/>
+      <c r="B40" s="114"/>
       <c r="C40" s="17" t="s">
         <v>51</v>
       </c>

--- a/Bases de datos/primers diseño clonaje.xlsx
+++ b/Bases de datos/primers diseño clonaje.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB61DD1-56F6-4011-9DC1-3483FF6201BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDAAE41-A7D1-4126-AED6-5DD7FB7775DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1373,9 +1373,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1392,158 +1389,173 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1829,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,7 +1852,7 @@
     <col min="5" max="5" width="11.42578125" style="37"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
@@ -1849,12 +1861,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -1901,10 +1913,10 @@
       <c r="E4" s="47">
         <v>64</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="100">
         <v>67</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="104" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="19">
@@ -1916,7 +1928,7 @@
       <c r="J4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="84">
+      <c r="K4" s="93">
         <v>2</v>
       </c>
       <c r="M4" s="52" t="s">
@@ -1936,8 +1948,8 @@
       <c r="E5" s="47">
         <v>64</v>
       </c>
-      <c r="F5" s="92"/>
-      <c r="G5" s="95"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="104"/>
       <c r="H5" s="19" t="s">
         <v>111</v>
       </c>
@@ -1947,7 +1959,7 @@
       <c r="J5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="85"/>
+      <c r="K5" s="94"/>
       <c r="M5" s="51" t="s">
         <v>155</v>
       </c>
@@ -1965,10 +1977,10 @@
       <c r="E6" s="47">
         <v>61</v>
       </c>
-      <c r="F6" s="91">
+      <c r="F6" s="100">
         <v>64</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="104"/>
       <c r="H6" s="19">
         <v>1</v>
       </c>
@@ -1978,7 +1990,7 @@
       <c r="J6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="84">
+      <c r="K6" s="93">
         <v>1</v>
       </c>
       <c r="M6" t="s">
@@ -1998,8 +2010,8 @@
       <c r="E7" s="47">
         <v>62</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="95"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="19" t="s">
         <v>111</v>
       </c>
@@ -2009,15 +2021,15 @@
       <c r="J7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="85"/>
+      <c r="K7" s="94"/>
     </row>
     <row r="9" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
@@ -2064,10 +2076,10 @@
       <c r="E11" s="48">
         <v>61</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="91">
         <v>64</v>
       </c>
-      <c r="G11" s="100" t="s">
+      <c r="G11" s="109" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="19" t="s">
@@ -2079,7 +2091,7 @@
       <c r="J11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="84"/>
+      <c r="K11" s="93"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="57" t="s">
@@ -2094,8 +2106,8 @@
       <c r="E12" s="48">
         <v>61</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="100"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="19">
         <v>1</v>
       </c>
@@ -2105,7 +2117,7 @@
       <c r="J12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="85"/>
+      <c r="K12" s="94"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="60" t="s">
@@ -2120,10 +2132,10 @@
       <c r="E13" s="61">
         <v>58</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="102">
         <v>61</v>
       </c>
-      <c r="G13" s="101" t="s">
+      <c r="G13" s="110" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="62">
@@ -2135,7 +2147,7 @@
       <c r="J13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="89"/>
+      <c r="K13" s="98"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
@@ -2150,8 +2162,8 @@
       <c r="E14" s="61">
         <v>60</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="101"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="62" t="s">
         <v>111</v>
       </c>
@@ -2161,7 +2173,7 @@
       <c r="J14" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="90"/>
+      <c r="K14" s="99"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="63" t="s">
@@ -2194,12 +2206,12 @@
       <c r="K15" s="35"/>
     </row>
     <row r="17" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
@@ -2255,10 +2267,10 @@
       <c r="E19" s="48">
         <v>61</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="91">
         <v>63</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="104" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="19">
@@ -2270,7 +2282,7 @@
       <c r="J19" s="19">
         <v>3</v>
       </c>
-      <c r="K19" s="84">
+      <c r="K19" s="93">
         <v>2</v>
       </c>
       <c r="M19" t="s">
@@ -2296,8 +2308,8 @@
       <c r="E20" s="48">
         <v>60</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="95"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="19" t="s">
         <v>111</v>
       </c>
@@ -2307,7 +2319,7 @@
       <c r="J20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="85"/>
+      <c r="K20" s="94"/>
       <c r="M20" s="53" t="s">
         <v>161</v>
       </c>
@@ -2331,10 +2343,10 @@
       <c r="E21" s="48">
         <v>61</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="91">
         <v>64</v>
       </c>
-      <c r="G21" s="95" t="s">
+      <c r="G21" s="104" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="19" t="s">
@@ -2346,7 +2358,7 @@
       <c r="J21" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="84">
+      <c r="K21" s="93">
         <v>2</v>
       </c>
     </row>
@@ -2363,8 +2375,8 @@
       <c r="E22" s="48">
         <v>62</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="95"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="19" t="s">
         <v>111</v>
       </c>
@@ -2374,7 +2386,7 @@
       <c r="J22" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="85"/>
+      <c r="K22" s="94"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -2389,10 +2401,10 @@
       <c r="E23" s="48">
         <v>60</v>
       </c>
-      <c r="F23" s="80">
+      <c r="F23" s="91">
         <v>63</v>
       </c>
-      <c r="G23" s="95" t="s">
+      <c r="G23" s="104" t="s">
         <v>108</v>
       </c>
       <c r="H23" s="19" t="s">
@@ -2404,7 +2416,7 @@
       <c r="J23" s="19">
         <v>1</v>
       </c>
-      <c r="K23" s="84" t="s">
+      <c r="K23" s="93" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2421,8 +2433,8 @@
       <c r="E24" s="48">
         <v>62</v>
       </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="95"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="104"/>
       <c r="H24" s="19" t="s">
         <v>111</v>
       </c>
@@ -2432,7 +2444,7 @@
       <c r="J24" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="85"/>
+      <c r="K24" s="94"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
@@ -2443,12 +2455,12 @@
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="86" t="s">
+      <c r="H26" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
@@ -2495,10 +2507,10 @@
       <c r="E28" s="43">
         <v>60</v>
       </c>
-      <c r="F28" s="80">
+      <c r="F28" s="91">
         <v>63</v>
       </c>
-      <c r="G28" s="96" t="s">
+      <c r="G28" s="105" t="s">
         <v>156</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -2510,7 +2522,7 @@
       <c r="J28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="80" t="s">
+      <c r="K28" s="91" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2527,8 +2539,8 @@
       <c r="E29" s="43">
         <v>63</v>
       </c>
-      <c r="F29" s="81"/>
-      <c r="G29" s="97"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="106"/>
       <c r="H29" s="19" t="s">
         <v>111</v>
       </c>
@@ -2538,7 +2550,7 @@
       <c r="J29" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="81"/>
+      <c r="K29" s="92"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="s">
@@ -2549,10 +2561,10 @@
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="59"/>
-      <c r="F30" s="82">
+      <c r="F30" s="89">
         <v>63</v>
       </c>
-      <c r="G30" s="98" t="s">
+      <c r="G30" s="107" t="s">
         <v>157</v>
       </c>
       <c r="H30" s="59" t="s">
@@ -2564,7 +2576,7 @@
       <c r="J30" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="K30" s="82">
+      <c r="K30" s="89">
         <v>2</v>
       </c>
     </row>
@@ -2581,8 +2593,8 @@
       <c r="E31" s="59">
         <v>61</v>
       </c>
-      <c r="F31" s="83"/>
-      <c r="G31" s="99"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="108"/>
       <c r="H31" s="59">
         <v>1</v>
       </c>
@@ -2592,7 +2604,7 @@
       <c r="J31" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="83"/>
+      <c r="K31" s="90"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
@@ -2615,12 +2627,12 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="86" t="s">
+      <c r="H35" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
     </row>
     <row r="36" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
@@ -2667,10 +2679,10 @@
       <c r="E37" s="43">
         <v>61</v>
       </c>
-      <c r="F37" s="80">
+      <c r="F37" s="91">
         <v>64</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="G37" s="93" t="s">
         <v>149</v>
       </c>
       <c r="H37" s="41" t="s">
@@ -2682,7 +2694,7 @@
       <c r="J37" s="41">
         <v>2</v>
       </c>
-      <c r="K37" s="80">
+      <c r="K37" s="91">
         <v>3</v>
       </c>
     </row>
@@ -2699,8 +2711,8 @@
       <c r="E38" s="44">
         <v>61</v>
       </c>
-      <c r="F38" s="81"/>
-      <c r="G38" s="85"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="94"/>
       <c r="H38" s="41" t="s">
         <v>111</v>
       </c>
@@ -2710,7 +2722,7 @@
       <c r="J38" s="41">
         <v>2</v>
       </c>
-      <c r="K38" s="81"/>
+      <c r="K38" s="92"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2725,10 +2737,10 @@
       <c r="E39" s="48">
         <v>60</v>
       </c>
-      <c r="F39" s="80">
+      <c r="F39" s="91">
         <v>63</v>
       </c>
-      <c r="G39" s="87" t="s">
+      <c r="G39" s="111" t="s">
         <v>151</v>
       </c>
       <c r="H39" s="41" t="s">
@@ -2740,7 +2752,7 @@
       <c r="J39" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="80">
+      <c r="K39" s="91">
         <v>2</v>
       </c>
     </row>
@@ -2757,8 +2769,8 @@
       <c r="E40" s="48">
         <v>62</v>
       </c>
-      <c r="F40" s="81"/>
-      <c r="G40" s="88"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="45" t="s">
         <v>111</v>
       </c>
@@ -2768,7 +2780,7 @@
       <c r="J40" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="81"/>
+      <c r="K40" s="92"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2783,10 +2795,10 @@
       <c r="E41" s="50">
         <v>62</v>
       </c>
-      <c r="F41" s="80">
+      <c r="F41" s="91">
         <v>64</v>
       </c>
-      <c r="G41" s="84" t="s">
+      <c r="G41" s="93" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="45">
@@ -2798,7 +2810,7 @@
       <c r="J41" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="80">
+      <c r="K41" s="91">
         <v>3</v>
       </c>
     </row>
@@ -2815,8 +2827,8 @@
       <c r="E42" s="43">
         <v>61</v>
       </c>
-      <c r="F42" s="81"/>
-      <c r="G42" s="85"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="94"/>
       <c r="H42" s="45" t="s">
         <v>111</v>
       </c>
@@ -2826,7 +2838,7 @@
       <c r="J42" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="81"/>
+      <c r="K42" s="92"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
@@ -2861,22 +2873,22 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="120">
+      <c r="D46" s="79">
         <v>20</v>
       </c>
-      <c r="E46" s="121">
+      <c r="E46" s="80">
         <v>62</v>
       </c>
-      <c r="F46" s="122">
+      <c r="F46" s="96">
         <v>64</v>
       </c>
-      <c r="G46" s="122" t="s">
+      <c r="G46" s="96" t="s">
         <v>209</v>
       </c>
       <c r="H46" s="40"/>
@@ -2885,42 +2897,42 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="120" t="s">
+      <c r="C47" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="120">
+      <c r="D47" s="79">
         <v>20</v>
       </c>
-      <c r="E47" s="121">
+      <c r="E47" s="80">
         <v>61</v>
       </c>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="D48" s="120">
+      <c r="D48" s="79">
         <v>20</v>
       </c>
-      <c r="E48" s="121">
+      <c r="E48" s="80">
         <v>61</v>
       </c>
-      <c r="F48" s="122">
+      <c r="F48" s="96">
         <v>63</v>
       </c>
-      <c r="G48" s="124" t="s">
+      <c r="G48" s="119" t="s">
         <v>218</v>
       </c>
       <c r="H48" s="40"/>
@@ -2929,42 +2941,42 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="120" t="s">
+      <c r="B49" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="125" t="s">
+      <c r="C49" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D49" s="120">
+      <c r="D49" s="79">
         <v>20</v>
       </c>
-      <c r="E49" s="121">
+      <c r="E49" s="80">
         <v>60</v>
       </c>
-      <c r="F49" s="123"/>
-      <c r="G49" s="126"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="120"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="120" t="s">
+      <c r="B50" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="120" t="s">
+      <c r="C50" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="D50" s="120">
+      <c r="D50" s="79">
         <v>20</v>
       </c>
-      <c r="E50" s="121">
+      <c r="E50" s="80">
         <v>62</v>
       </c>
-      <c r="F50" s="127">
+      <c r="F50" s="82">
         <v>64</v>
       </c>
-      <c r="G50" s="128" t="s">
+      <c r="G50" s="83" t="s">
         <v>222</v>
       </c>
       <c r="H50" s="1"/>
@@ -2973,22 +2985,22 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="129" t="s">
+      <c r="C51" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="D51" s="120">
+      <c r="D51" s="79">
         <v>20</v>
       </c>
-      <c r="E51" s="121">
+      <c r="E51" s="80">
         <v>60</v>
       </c>
-      <c r="F51" s="122">
+      <c r="F51" s="96">
         <v>63</v>
       </c>
-      <c r="G51" s="124" t="s">
+      <c r="G51" s="119" t="s">
         <v>223</v>
       </c>
       <c r="H51" s="40"/>
@@ -2997,42 +3009,42 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="120" t="s">
+      <c r="B52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="120" t="s">
+      <c r="C52" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="120">
+      <c r="D52" s="79">
         <v>21</v>
       </c>
-      <c r="E52" s="121">
+      <c r="E52" s="80">
         <v>60</v>
       </c>
-      <c r="F52" s="123"/>
-      <c r="G52" s="126"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="120"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="120" t="s">
+      <c r="B53" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="120" t="s">
+      <c r="C53" s="79" t="s">
         <v>238</v>
       </c>
-      <c r="D53" s="120">
+      <c r="D53" s="79">
         <v>20</v>
       </c>
-      <c r="E53" s="121">
+      <c r="E53" s="80">
         <v>60</v>
       </c>
-      <c r="F53" s="130">
+      <c r="F53" s="85">
         <v>63</v>
       </c>
-      <c r="G53" s="131" t="s">
+      <c r="G53" s="86" t="s">
         <v>224</v>
       </c>
       <c r="H53" s="1"/>
@@ -3053,10 +3065,10 @@
       <c r="E54" s="67">
         <v>62</v>
       </c>
-      <c r="F54" s="84">
+      <c r="F54" s="93">
         <v>65</v>
       </c>
-      <c r="G54" s="84" t="s">
+      <c r="G54" s="93" t="s">
         <v>246</v>
       </c>
       <c r="H54" s="1"/>
@@ -3077,8 +3089,8 @@
       <c r="E55" s="67">
         <v>62</v>
       </c>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="94"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3141,13 +3153,13 @@
       </c>
     </row>
     <row r="59" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="75">
+      <c r="D59" s="74">
         <v>19</v>
       </c>
       <c r="E59" s="48">
@@ -3165,13 +3177,13 @@
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="D60" s="75">
+      <c r="D60" s="74">
         <v>19</v>
       </c>
       <c r="E60" s="48">
@@ -3257,10 +3269,10 @@
       <c r="E64" s="48">
         <v>60</v>
       </c>
-      <c r="F64" s="80">
+      <c r="F64" s="91">
         <v>63</v>
       </c>
-      <c r="G64" s="87" t="s">
+      <c r="G64" s="111" t="s">
         <v>229</v>
       </c>
       <c r="H64" s="40"/>
@@ -3281,8 +3293,8 @@
       <c r="E65" s="48">
         <v>62</v>
       </c>
-      <c r="F65" s="81"/>
-      <c r="G65" s="88"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="112"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3369,10 +3381,10 @@
       <c r="E70" s="70">
         <v>60</v>
       </c>
-      <c r="F70" s="110">
+      <c r="F70" s="121">
         <v>63</v>
       </c>
-      <c r="G70" s="108" t="s">
+      <c r="G70" s="123" t="s">
         <v>249</v>
       </c>
       <c r="H70" s="40"/>
@@ -3393,8 +3405,8 @@
       <c r="E71" s="70">
         <v>60</v>
       </c>
-      <c r="F71" s="111"/>
-      <c r="G71" s="109"/>
+      <c r="F71" s="122"/>
+      <c r="G71" s="124"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3416,7 +3428,7 @@
       <c r="F72" s="71">
         <v>63</v>
       </c>
-      <c r="G72" s="108" t="s">
+      <c r="G72" s="123" t="s">
         <v>250</v>
       </c>
       <c r="H72" s="40"/>
@@ -3432,29 +3444,29 @@
       <c r="D73" s="69"/>
       <c r="E73" s="70"/>
       <c r="F73" s="72"/>
-      <c r="G73" s="109"/>
+      <c r="G73" s="124"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="35">
         <v>20</v>
       </c>
-      <c r="E74" s="48">
+      <c r="E74" s="58">
         <v>61</v>
       </c>
-      <c r="F74" s="84">
+      <c r="F74" s="125">
         <v>64</v>
       </c>
-      <c r="G74" s="87" t="s">
+      <c r="G74" s="134" t="s">
         <v>251</v>
       </c>
       <c r="H74" s="40"/>
@@ -3463,20 +3475,20 @@
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="35">
         <v>19</v>
       </c>
-      <c r="E75" s="48">
+      <c r="E75" s="58">
         <v>62</v>
       </c>
-      <c r="F75" s="85"/>
-      <c r="G75" s="88"/>
+      <c r="F75" s="126"/>
+      <c r="G75" s="135"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3551,22 +3563,22 @@
       <c r="E79" s="48">
         <v>63</v>
       </c>
-      <c r="F79" s="80">
+      <c r="F79" s="91">
         <v>63</v>
       </c>
-      <c r="G79" s="84" t="s">
+      <c r="G79" s="93" t="s">
         <v>273</v>
       </c>
       <c r="H79" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="I79" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="J79" s="76" t="s">
+      <c r="I79" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="J79" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="K79" s="76" t="s">
+      <c r="K79" s="75" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3583,50 +3595,50 @@
       <c r="E80" s="48">
         <v>60</v>
       </c>
-      <c r="F80" s="81"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="I80" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="J80" s="76" t="s">
+      <c r="F80" s="92"/>
+      <c r="G80" s="94"/>
+      <c r="H80" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="I80" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="J80" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="K80" s="76" t="s">
+      <c r="K80" s="75" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="35">
         <v>20</v>
       </c>
-      <c r="E81" s="48">
+      <c r="E81" s="58">
         <v>60</v>
       </c>
-      <c r="F81" s="48" t="s">
+      <c r="F81" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="G81" s="73" t="s">
+      <c r="G81" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="H81" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="I81" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="J81" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="K81" s="76" t="s">
+      <c r="H81" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I81" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="J81" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="K81" s="59" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3641,10 +3653,10 @@
       <c r="E82" s="48"/>
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="76"/>
-      <c r="K82" s="76"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="75"/>
+      <c r="K82" s="75"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
@@ -3689,76 +3701,76 @@
       <c r="G85" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H85" s="77" t="s">
+      <c r="H85" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="I85" s="78" t="s">
+      <c r="I85" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="J85" s="79" t="s">
+      <c r="J85" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="K85" s="77" t="s">
+      <c r="K85" s="76" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="35">
         <v>19</v>
       </c>
-      <c r="E86" s="48">
+      <c r="E86" s="58">
         <v>62</v>
       </c>
-      <c r="F86" s="80">
+      <c r="F86" s="89">
         <v>64</v>
       </c>
-      <c r="G86" s="84" t="s">
+      <c r="G86" s="125" t="s">
         <v>286</v>
       </c>
-      <c r="H86" s="37">
+      <c r="H86" s="87">
         <v>1</v>
       </c>
-      <c r="I86" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="J86" s="76" t="s">
+      <c r="I86" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="J86" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="K86" s="80">
+      <c r="K86" s="89">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="35">
         <v>20</v>
       </c>
-      <c r="E87" s="48">
+      <c r="E87" s="58">
         <v>61</v>
       </c>
-      <c r="F87" s="81"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="I87" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="J87" s="76" t="s">
+      <c r="F87" s="90"/>
+      <c r="G87" s="126"/>
+      <c r="H87" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I87" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="J87" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="K87" s="81"/>
+      <c r="K87" s="90"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
@@ -3773,22 +3785,22 @@
       <c r="E88" s="48">
         <v>62</v>
       </c>
-      <c r="F88" s="80">
+      <c r="F88" s="91">
         <v>64</v>
       </c>
-      <c r="G88" s="84" t="s">
+      <c r="G88" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="H88" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="I88" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="J88" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="K88" s="80">
+      <c r="H88" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="I88" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="J88" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88" s="91">
         <v>2</v>
       </c>
     </row>
@@ -3805,18 +3817,18 @@
       <c r="E89" s="48">
         <v>61</v>
       </c>
-      <c r="F89" s="81"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="I89" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="J89" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="K89" s="81"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="94"/>
+      <c r="H89" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="I89" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="J89" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="K89" s="92"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
@@ -3856,18 +3868,18 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
-      <c r="B93" s="74" t="s">
+      <c r="B93" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="74"/>
-      <c r="G93" s="74"/>
-      <c r="H93" s="74"/>
-      <c r="I93" s="74"/>
-      <c r="J93" s="74"/>
-      <c r="K93" s="74"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="73"/>
+      <c r="J93" s="73"/>
+      <c r="K93" s="73"/>
       <c r="L93" s="54"/>
       <c r="M93" s="54"/>
       <c r="N93" s="54"/>
@@ -3909,10 +3921,10 @@
         <v>169</v>
       </c>
       <c r="F97" s="39"/>
-      <c r="G97" s="105" t="s">
+      <c r="G97" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="H97" s="105" t="s">
+      <c r="H97" s="116" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3930,16 +3942,16 @@
         <v>170</v>
       </c>
       <c r="F98" s="39"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="105"/>
+      <c r="G98" s="116"/>
+      <c r="H98" s="116"/>
     </row>
     <row r="101" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H101" s="102" t="s">
+      <c r="H101" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="I101" s="103"/>
-      <c r="J101" s="103"/>
-      <c r="K101" s="104"/>
+      <c r="I101" s="114"/>
+      <c r="J101" s="114"/>
+      <c r="K101" s="115"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="21" t="s">
@@ -3987,7 +3999,7 @@
         <v>176</v>
       </c>
       <c r="F103" s="39"/>
-      <c r="G103" s="80" t="s">
+      <c r="G103" s="91" t="s">
         <v>177</v>
       </c>
       <c r="H103" s="40"/>
@@ -4009,7 +4021,7 @@
         <v>176</v>
       </c>
       <c r="F104" s="39"/>
-      <c r="G104" s="81"/>
+      <c r="G104" s="92"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -4029,14 +4041,14 @@
         <v>181</v>
       </c>
       <c r="F105" s="39"/>
-      <c r="G105" s="80" t="s">
+      <c r="G105" s="91" t="s">
         <v>183</v>
       </c>
       <c r="H105" s="40"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-      <c r="L105" s="107" t="s">
+      <c r="L105" s="118" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4054,26 +4066,26 @@
         <v>182</v>
       </c>
       <c r="F106" s="39"/>
-      <c r="G106" s="81"/>
+      <c r="G106" s="92"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-      <c r="L106" s="107"/>
+      <c r="L106" s="118"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L107" s="106"/>
+      <c r="L107" s="117"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L108" s="106"/>
+      <c r="L108" s="117"/>
     </row>
     <row r="109" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H109" s="102" t="s">
+      <c r="H109" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="I109" s="103"/>
-      <c r="J109" s="103"/>
-      <c r="K109" s="104"/>
+      <c r="I109" s="114"/>
+      <c r="J109" s="114"/>
+      <c r="K109" s="115"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
@@ -4120,8 +4132,8 @@
       <c r="E111" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="F111" s="80"/>
-      <c r="G111" s="80" t="s">
+      <c r="F111" s="91"/>
+      <c r="G111" s="91" t="s">
         <v>186</v>
       </c>
       <c r="H111" s="40"/>
@@ -4142,8 +4154,8 @@
       <c r="E112" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="F112" s="81"/>
-      <c r="G112" s="81"/>
+      <c r="F112" s="92"/>
+      <c r="G112" s="92"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -4162,15 +4174,15 @@
       <c r="E113" s="70">
         <v>80.16</v>
       </c>
-      <c r="F113" s="80"/>
-      <c r="G113" s="80" t="s">
+      <c r="F113" s="91"/>
+      <c r="G113" s="91" t="s">
         <v>186</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-      <c r="L113" s="106" t="s">
+      <c r="L113" s="117" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4187,13 +4199,13 @@
       <c r="E114" s="70">
         <v>80.16</v>
       </c>
-      <c r="F114" s="81"/>
-      <c r="G114" s="81"/>
+      <c r="F114" s="92"/>
+      <c r="G114" s="92"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
-      <c r="L114" s="106"/>
+      <c r="L114" s="117"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" s="69" t="s">
@@ -4208,15 +4220,15 @@
       <c r="E115" s="70">
         <v>80.16</v>
       </c>
-      <c r="F115" s="80"/>
-      <c r="G115" s="80" t="s">
+      <c r="F115" s="91"/>
+      <c r="G115" s="91" t="s">
         <v>186</v>
       </c>
       <c r="H115" s="40"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
-      <c r="L115" s="106" t="s">
+      <c r="L115" s="117" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4233,21 +4245,21 @@
       <c r="E116" s="70">
         <v>80.16</v>
       </c>
-      <c r="F116" s="81"/>
-      <c r="G116" s="81"/>
+      <c r="F116" s="92"/>
+      <c r="G116" s="92"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
-      <c r="L116" s="106"/>
+      <c r="L116" s="117"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L117" s="106" t="s">
+      <c r="L117" s="117" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L118" s="106"/>
+      <c r="L118" s="117"/>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119" s="21" t="s">
@@ -4368,17 +4380,12 @@
     <mergeCell ref="L107:L108"/>
     <mergeCell ref="G111:G112"/>
     <mergeCell ref="L113:L114"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="G97:G98"/>
     <mergeCell ref="H97:H98"/>
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G28:G29"/>
@@ -4387,7 +4394,11 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="F46:F47"/>
     <mergeCell ref="H2:K2"/>
@@ -4403,6 +4414,7 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="K86:K87"/>
     <mergeCell ref="K88:K89"/>
     <mergeCell ref="F28:F29"/>
@@ -4443,11 +4455,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -4469,7 +4481,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="89" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -4480,7 +4492,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="119"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
@@ -4489,7 +4501,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="130" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -4503,7 +4515,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="115"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +4536,7 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="125" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="42" t="s">
@@ -4535,7 +4547,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="118"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
@@ -4544,7 +4556,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="118"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
@@ -4556,7 +4568,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="118"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
@@ -4568,7 +4580,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="130" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4580,7 +4592,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="115"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
@@ -4614,7 +4626,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="87"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
@@ -4624,7 +4636,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="88"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
@@ -4668,7 +4680,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="130" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -4679,7 +4691,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="115"/>
+      <c r="B33" s="130"/>
       <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
@@ -4688,7 +4700,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="115"/>
+      <c r="B34" s="130"/>
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
@@ -4697,7 +4709,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="115"/>
+      <c r="B35" s="130"/>
       <c r="C35" s="17" t="s">
         <v>41</v>
       </c>
@@ -4706,7 +4718,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="116" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -4717,7 +4729,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="105"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
@@ -4726,7 +4738,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="112" t="s">
+      <c r="B38" s="127" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -4737,7 +4749,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="113"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
@@ -4746,7 +4758,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="17" t="s">
         <v>51</v>
       </c>
